--- a/data/active_soybean_contracts_for_may_2020.xlsx
+++ b/data/active_soybean_contracts_for_may_2020.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brady\Documents\r-projects\soybean-stocks\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF01AD8A-2D3D-4024-A46A-408EF2A95088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ZS_K_2020 (1).CSV" sheetId="1" r:id="rId3"/>
+    <sheet name="ZS_K_2020.CSV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,94 +52,391 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y458"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -161,7 +467,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -192,14 +498,14 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -216,9 +522,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>43053.0</v>
+        <v>43053</v>
       </c>
       <c r="B5" s="6">
         <v>978.5</v>
@@ -233,43 +539,43 @@
         <v>978.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>43054.0</v>
+        <v>43054</v>
       </c>
       <c r="B6" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="C6" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="D6" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="E6" s="6">
-        <v>985.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>43055.0</v>
+        <v>43055</v>
       </c>
       <c r="B7" s="6">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="C7" s="6">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="D7" s="6">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="E7" s="6">
-        <v>991.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>43056.0</v>
+        <v>43056</v>
       </c>
       <c r="B8" s="6">
         <v>1004.5</v>
@@ -284,9 +590,9 @@
         <v>1004.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>43059.0</v>
+        <v>43059</v>
       </c>
       <c r="B9" s="6">
         <v>1006.5</v>
@@ -301,43 +607,43 @@
         <v>1006.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>43060.0</v>
+        <v>43060</v>
       </c>
       <c r="B10" s="6">
-        <v>1006.0</v>
+        <v>1006</v>
       </c>
       <c r="C10" s="6">
-        <v>1006.0</v>
+        <v>1006</v>
       </c>
       <c r="D10" s="6">
-        <v>1006.0</v>
+        <v>1006</v>
       </c>
       <c r="E10" s="6">
-        <v>1006.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>43061.0</v>
+        <v>43061</v>
       </c>
       <c r="B11" s="6">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="C11" s="6">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="D11" s="6">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="E11" s="6">
-        <v>1011.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>43063.0</v>
+        <v>43063</v>
       </c>
       <c r="B12" s="6">
         <v>1008.5</v>
@@ -352,9 +658,9 @@
         <v>1008.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>43066.0</v>
+        <v>43066</v>
       </c>
       <c r="B13" s="6">
         <v>1009.75</v>
@@ -369,9 +675,9 @@
         <v>1009.75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>43067.0</v>
+        <v>43067</v>
       </c>
       <c r="B14" s="6">
         <v>1009.75</v>
@@ -386,9 +692,9 @@
         <v>1009.75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>43068.0</v>
+        <v>43068</v>
       </c>
       <c r="B15" s="6">
         <v>1008.25</v>
@@ -403,9 +709,9 @@
         <v>1008.25</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>43069.0</v>
+        <v>43069</v>
       </c>
       <c r="B16" s="6">
         <v>1005.75</v>
@@ -420,9 +726,9 @@
         <v>1005.75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>43070.0</v>
+        <v>43070</v>
       </c>
       <c r="B17" s="6">
         <v>1012.5</v>
@@ -437,9 +743,9 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>43073.0</v>
+        <v>43073</v>
       </c>
       <c r="B18" s="6">
         <v>1012.75</v>
@@ -454,26 +760,26 @@
         <v>1012.75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>43074.0</v>
+        <v>43074</v>
       </c>
       <c r="B19" s="6">
-        <v>1018.0</v>
+        <v>1018</v>
       </c>
       <c r="C19" s="6">
-        <v>1018.0</v>
+        <v>1018</v>
       </c>
       <c r="D19" s="6">
-        <v>1018.0</v>
+        <v>1018</v>
       </c>
       <c r="E19" s="6">
-        <v>1018.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>43075.0</v>
+        <v>43075</v>
       </c>
       <c r="B20" s="6">
         <v>1014.25</v>
@@ -488,9 +794,9 @@
         <v>1014.25</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>43076.0</v>
+        <v>43076</v>
       </c>
       <c r="B21" s="6">
         <v>1005.25</v>
@@ -505,43 +811,43 @@
         <v>1005.25</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>43077.0</v>
+        <v>43077</v>
       </c>
       <c r="B22" s="6">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="C22" s="6">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="D22" s="6">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="E22" s="6">
-        <v>1004.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>43080.0</v>
+        <v>43080</v>
       </c>
       <c r="B23" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C23" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="6">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>43081.0</v>
+        <v>43081</v>
       </c>
       <c r="B24" s="6">
         <v>995.5</v>
@@ -556,9 +862,9 @@
         <v>995.5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>43082.0</v>
+        <v>43082</v>
       </c>
       <c r="B25" s="6">
         <v>998.5</v>
@@ -573,26 +879,26 @@
         <v>998.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>43083.0</v>
+        <v>43083</v>
       </c>
       <c r="B26" s="6">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="C26" s="6">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="D26" s="6">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="E26" s="6">
-        <v>992.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>43084.0</v>
+        <v>43084</v>
       </c>
       <c r="B27" s="6">
         <v>992.25</v>
@@ -607,9 +913,9 @@
         <v>992.25</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>43087.0</v>
+        <v>43087</v>
       </c>
       <c r="B28" s="6">
         <v>988.5</v>
@@ -624,9 +930,9 @@
         <v>988.5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>43088.0</v>
+        <v>43088</v>
       </c>
       <c r="B29" s="6">
         <v>984.25</v>
@@ -641,26 +947,26 @@
         <v>984.25</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>43089.0</v>
+        <v>43089</v>
       </c>
       <c r="B30" s="6">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="C30" s="6">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="D30" s="6">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="E30" s="6">
-        <v>984.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>43090.0</v>
+        <v>43090</v>
       </c>
       <c r="B31" s="6">
         <v>984.25</v>
@@ -675,9 +981,9 @@
         <v>984.25</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>43091.0</v>
+        <v>43091</v>
       </c>
       <c r="B32" s="6">
         <v>984.5</v>
@@ -692,9 +998,9 @@
         <v>984.5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>43095.0</v>
+        <v>43095</v>
       </c>
       <c r="B33" s="6">
         <v>992.5</v>
@@ -709,9 +1015,9 @@
         <v>992.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>43096.0</v>
+        <v>43096</v>
       </c>
       <c r="B34" s="6">
         <v>992.25</v>
@@ -726,9 +1032,9 @@
         <v>992.25</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>43097.0</v>
+        <v>43097</v>
       </c>
       <c r="B35" s="6">
         <v>987.5</v>
@@ -743,43 +1049,43 @@
         <v>987.5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>43098.0</v>
+        <v>43098</v>
       </c>
       <c r="B36" s="6">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="C36" s="6">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="D36" s="6">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="E36" s="6">
-        <v>989.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <v>43102.0</v>
+        <v>43102</v>
       </c>
       <c r="B37" s="6">
-        <v>994.0</v>
+        <v>994</v>
       </c>
       <c r="C37" s="6">
-        <v>994.0</v>
+        <v>994</v>
       </c>
       <c r="D37" s="6">
-        <v>994.0</v>
+        <v>994</v>
       </c>
       <c r="E37" s="6">
-        <v>994.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>43103.0</v>
+        <v>43103</v>
       </c>
       <c r="B38" s="6">
         <v>994.75</v>
@@ -794,9 +1100,9 @@
         <v>994.75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>43104.0</v>
+        <v>43104</v>
       </c>
       <c r="B39" s="6">
         <v>994.25</v>
@@ -811,9 +1117,9 @@
         <v>994.25</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>43105.0</v>
+        <v>43105</v>
       </c>
       <c r="B40" s="6">
         <v>995.75</v>
@@ -828,9 +1134,9 @@
         <v>995.75</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>43108.0</v>
+        <v>43108</v>
       </c>
       <c r="B41" s="6">
         <v>994.75</v>
@@ -845,9 +1151,9 @@
         <v>994.75</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>43109.0</v>
+        <v>43109</v>
       </c>
       <c r="B42" s="6">
         <v>993.75</v>
@@ -862,9 +1168,9 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>43110.0</v>
+        <v>43110</v>
       </c>
       <c r="B43" s="6">
         <v>986.75</v>
@@ -879,26 +1185,26 @@
         <v>986.75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>43111.0</v>
+        <v>43111</v>
       </c>
       <c r="B44" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="C44" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="D44" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="E44" s="6">
-        <v>985.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
-        <v>43112.0</v>
+        <v>43112</v>
       </c>
       <c r="B45" s="6">
         <v>996.75</v>
@@ -913,9 +1219,9 @@
         <v>996.75</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
-        <v>43116.0</v>
+        <v>43116</v>
       </c>
       <c r="B46" s="6">
         <v>999.5</v>
@@ -930,9 +1236,9 @@
         <v>999.5</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
-        <v>43117.0</v>
+        <v>43117</v>
       </c>
       <c r="B47" s="6">
         <v>999.5</v>
@@ -947,9 +1253,9 @@
         <v>999.5</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
-        <v>43118.0</v>
+        <v>43118</v>
       </c>
       <c r="B48" s="6">
         <v>1003.5</v>
@@ -964,9 +1270,9 @@
         <v>1003.5</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
-        <v>43119.0</v>
+        <v>43119</v>
       </c>
       <c r="B49" s="6">
         <v>1003.5</v>
@@ -981,9 +1287,9 @@
         <v>1003.5</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
-        <v>43122.0</v>
+        <v>43122</v>
       </c>
       <c r="B50" s="6">
         <v>1006.5</v>
@@ -998,9 +1304,9 @@
         <v>1006.5</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
-        <v>43123.0</v>
+        <v>43123</v>
       </c>
       <c r="B51" s="6">
         <v>1008.75</v>
@@ -1015,9 +1321,9 @@
         <v>1008.75</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
-        <v>43124.0</v>
+        <v>43124</v>
       </c>
       <c r="B52" s="6">
         <v>1011.25</v>
@@ -1032,9 +1338,9 @@
         <v>1011.25</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
-        <v>43125.0</v>
+        <v>43125</v>
       </c>
       <c r="B53" s="6">
         <v>1012.25</v>
@@ -1049,26 +1355,26 @@
         <v>1012.25</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <v>43126.0</v>
+        <v>43126</v>
       </c>
       <c r="B54" s="6">
-        <v>1009.0</v>
+        <v>1009</v>
       </c>
       <c r="C54" s="6">
-        <v>1009.0</v>
+        <v>1009</v>
       </c>
       <c r="D54" s="6">
-        <v>1009.0</v>
+        <v>1009</v>
       </c>
       <c r="E54" s="6">
-        <v>1009.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <v>43129.0</v>
+        <v>43129</v>
       </c>
       <c r="B55" s="6">
         <v>1011.5</v>
@@ -1083,9 +1389,9 @@
         <v>1011.5</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>43130.0</v>
+        <v>43130</v>
       </c>
       <c r="B56" s="6">
         <v>1014.5</v>
@@ -1100,9 +1406,9 @@
         <v>1014.5</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
-        <v>43131.0</v>
+        <v>43131</v>
       </c>
       <c r="B57" s="6">
         <v>1011.75</v>
@@ -1117,9 +1423,9 @@
         <v>1011.75</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
-        <v>43132.0</v>
+        <v>43132</v>
       </c>
       <c r="B58" s="6">
         <v>1007.25</v>
@@ -1134,9 +1440,9 @@
         <v>1007.25</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
-        <v>43133.0</v>
+        <v>43133</v>
       </c>
       <c r="B59" s="6">
         <v>1001.5</v>
@@ -1151,9 +1457,9 @@
         <v>1001.5</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
-        <v>43136.0</v>
+        <v>43136</v>
       </c>
       <c r="B60" s="6">
         <v>996.5</v>
@@ -1168,9 +1474,9 @@
         <v>996.5</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
-        <v>43137.0</v>
+        <v>43137</v>
       </c>
       <c r="B61" s="6">
         <v>1008.25</v>
@@ -1185,9 +1491,9 @@
         <v>1008.25</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="B62" s="6">
         <v>1004.25</v>
@@ -1202,9 +1508,9 @@
         <v>1004.25</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <v>43139.0</v>
+        <v>43139</v>
       </c>
       <c r="B63" s="6">
         <v>1007.75</v>
@@ -1219,9 +1525,9 @@
         <v>1007.75</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
-        <v>43140.0</v>
+        <v>43140</v>
       </c>
       <c r="B64" s="6">
         <v>1003.5</v>
@@ -1236,9 +1542,9 @@
         <v>1003.5</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <v>43143.0</v>
+        <v>43143</v>
       </c>
       <c r="B65" s="6">
         <v>1010.25</v>
@@ -1253,9 +1559,9 @@
         <v>1010.25</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>43144.0</v>
+        <v>43144</v>
       </c>
       <c r="B66" s="6">
         <v>1010.25</v>
@@ -1270,9 +1576,9 @@
         <v>1010.25</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <v>43145.0</v>
+        <v>43145</v>
       </c>
       <c r="B67" s="6">
         <v>1006.75</v>
@@ -1287,9 +1593,9 @@
         <v>1006.75</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <v>43146.0</v>
+        <v>43146</v>
       </c>
       <c r="B68" s="6">
         <v>1011.25</v>
@@ -1304,9 +1610,9 @@
         <v>1011.25</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <v>43147.0</v>
+        <v>43147</v>
       </c>
       <c r="B69" s="6">
         <v>1010.5</v>
@@ -1321,9 +1627,9 @@
         <v>1010.5</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <v>43151.0</v>
+        <v>43151</v>
       </c>
       <c r="B70" s="6">
         <v>1012.75</v>
@@ -1338,9 +1644,9 @@
         <v>1012.75</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <v>43152.0</v>
+        <v>43152</v>
       </c>
       <c r="B71" s="6">
         <v>1013.25</v>
@@ -1355,9 +1661,9 @@
         <v>1013.25</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <v>43153.0</v>
+        <v>43153</v>
       </c>
       <c r="B72" s="6">
         <v>1012.25</v>
@@ -1372,9 +1678,9 @@
         <v>1012.25</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <v>43154.0</v>
+        <v>43154</v>
       </c>
       <c r="B73" s="6">
         <v>1014.75</v>
@@ -1389,9 +1695,9 @@
         <v>1014.75</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <v>43157.0</v>
+        <v>43157</v>
       </c>
       <c r="B74" s="6">
         <v>1015.25</v>
@@ -1406,9 +1712,9 @@
         <v>1015.25</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <v>43158.0</v>
+        <v>43158</v>
       </c>
       <c r="B75" s="6">
         <v>1013.75</v>
@@ -1423,26 +1729,26 @@
         <v>1013.75</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
-        <v>43159.0</v>
+        <v>43159</v>
       </c>
       <c r="B76" s="6">
-        <v>1013.0</v>
+        <v>1013</v>
       </c>
       <c r="C76" s="6">
-        <v>1013.0</v>
+        <v>1013</v>
       </c>
       <c r="D76" s="6">
-        <v>1013.0</v>
+        <v>1013</v>
       </c>
       <c r="E76" s="6">
-        <v>1013.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
-        <v>43160.0</v>
+        <v>43160</v>
       </c>
       <c r="B77" s="6">
         <v>1013.25</v>
@@ -1457,9 +1763,9 @@
         <v>1013.25</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <v>43161.0</v>
+        <v>43161</v>
       </c>
       <c r="B78" s="6">
         <v>1008.25</v>
@@ -1474,9 +1780,9 @@
         <v>1008.25</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
-        <v>43164.0</v>
+        <v>43164</v>
       </c>
       <c r="B79" s="6">
         <v>1012.25</v>
@@ -1491,9 +1797,9 @@
         <v>1012.25</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
-        <v>43165.0</v>
+        <v>43165</v>
       </c>
       <c r="B80" s="6">
         <v>1019.75</v>
@@ -1508,43 +1814,43 @@
         <v>1019.75</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
-        <v>43166.0</v>
+        <v>43166</v>
       </c>
       <c r="B81" s="6">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="C81" s="6">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="D81" s="6">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="E81" s="6">
-        <v>1020.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
-        <v>43167.0</v>
+        <v>43167</v>
       </c>
       <c r="B82" s="6">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="C82" s="6">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="D82" s="6">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="E82" s="6">
-        <v>1020.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
-        <v>43168.0</v>
+        <v>43168</v>
       </c>
       <c r="B83" s="6">
         <v>1009.25</v>
@@ -1559,9 +1865,9 @@
         <v>1009.25</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="B84" s="6">
         <v>1016.5</v>
@@ -1576,9 +1882,9 @@
         <v>1016.5</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
-        <v>43172.0</v>
+        <v>43172</v>
       </c>
       <c r="B85" s="6">
         <v>1021.75</v>
@@ -1593,9 +1899,9 @@
         <v>1021.75</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
-        <v>43173.0</v>
+        <v>43173</v>
       </c>
       <c r="B86" s="6">
         <v>1010.5</v>
@@ -1610,9 +1916,9 @@
         <v>1010.5</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
-        <v>43174.0</v>
+        <v>43174</v>
       </c>
       <c r="B87" s="6">
         <v>1012.25</v>
@@ -1627,9 +1933,9 @@
         <v>1012.25</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
-        <v>43175.0</v>
+        <v>43175</v>
       </c>
       <c r="B88" s="6">
         <v>1017.5</v>
@@ -1644,9 +1950,9 @@
         <v>1017.5</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
-        <v>43178.0</v>
+        <v>43178</v>
       </c>
       <c r="B89" s="6">
         <v>1009.75</v>
@@ -1661,9 +1967,9 @@
         <v>1009.75</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
-        <v>43179.0</v>
+        <v>43179</v>
       </c>
       <c r="B90" s="6">
         <v>1011.5</v>
@@ -1678,9 +1984,9 @@
         <v>1011.5</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
-        <v>43180.0</v>
+        <v>43180</v>
       </c>
       <c r="B91" s="6">
         <v>1010.5</v>
@@ -1695,9 +2001,9 @@
         <v>1010.5</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
-        <v>43181.0</v>
+        <v>43181</v>
       </c>
       <c r="B92" s="6">
         <v>1010.25</v>
@@ -1712,9 +2018,9 @@
         <v>1010.25</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
-        <v>43182.0</v>
+        <v>43182</v>
       </c>
       <c r="B93" s="6">
         <v>1009.25</v>
@@ -1729,9 +2035,9 @@
         <v>1009.25</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
-        <v>43185.0</v>
+        <v>43185</v>
       </c>
       <c r="B94" s="6">
         <v>1008.75</v>
@@ -1746,9 +2052,9 @@
         <v>1008.75</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
-        <v>43186.0</v>
+        <v>43186</v>
       </c>
       <c r="B95" s="6">
         <v>1004.25</v>
@@ -1763,9 +2069,9 @@
         <v>1004.25</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
-        <v>43187.0</v>
+        <v>43187</v>
       </c>
       <c r="B96" s="6">
         <v>1000.75</v>
@@ -1780,26 +2086,26 @@
         <v>1000.75</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
-        <v>43188.0</v>
+        <v>43188</v>
       </c>
       <c r="B97" s="6">
-        <v>1017.0</v>
+        <v>1017</v>
       </c>
       <c r="C97" s="6">
-        <v>1017.0</v>
+        <v>1017</v>
       </c>
       <c r="D97" s="6">
-        <v>1017.0</v>
+        <v>1017</v>
       </c>
       <c r="E97" s="6">
-        <v>1017.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
-        <v>43192.0</v>
+        <v>43192</v>
       </c>
       <c r="B98" s="6">
         <v>1005.75</v>
@@ -1814,9 +2120,9 @@
         <v>1005.75</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
-        <v>43193.0</v>
+        <v>43193</v>
       </c>
       <c r="B99" s="6">
         <v>1005.75</v>
@@ -1831,9 +2137,9 @@
         <v>1005.75</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
-        <v>43194.0</v>
+        <v>43194</v>
       </c>
       <c r="B100" s="6">
         <v>993.5</v>
@@ -1848,26 +2154,26 @@
         <v>993.5</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
-        <v>43195.0</v>
+        <v>43195</v>
       </c>
       <c r="B101" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C101" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D101" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="6">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
-        <v>43196.0</v>
+        <v>43196</v>
       </c>
       <c r="B102" s="6">
         <v>999.5</v>
@@ -1882,9 +2188,9 @@
         <v>999.5</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
-        <v>43199.0</v>
+        <v>43199</v>
       </c>
       <c r="B103" s="6">
         <v>999.75</v>
@@ -1899,9 +2205,9 @@
         <v>999.75</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
-        <v>43200.0</v>
+        <v>43200</v>
       </c>
       <c r="B104" s="6">
         <v>1004.5</v>
@@ -1916,9 +2222,9 @@
         <v>1004.5</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
-        <v>43201.0</v>
+        <v>43201</v>
       </c>
       <c r="B105" s="6">
         <v>1003.75</v>
@@ -1933,9 +2239,9 @@
         <v>1003.75</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
-        <v>43202.0</v>
+        <v>43202</v>
       </c>
       <c r="B106" s="6">
         <v>1001.25</v>
@@ -1950,9 +2256,9 @@
         <v>1001.25</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
-        <v>43203.0</v>
+        <v>43203</v>
       </c>
       <c r="B107" s="6">
         <v>998.75</v>
@@ -1967,9 +2273,9 @@
         <v>998.75</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
-        <v>43206.0</v>
+        <v>43206</v>
       </c>
       <c r="B108" s="6">
         <v>993.75</v>
@@ -1984,26 +2290,26 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
-        <v>43207.0</v>
+        <v>43207</v>
       </c>
       <c r="B109" s="6">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="C109" s="6">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="D109" s="6">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="E109" s="6">
-        <v>995.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
-        <v>43208.0</v>
+        <v>43208</v>
       </c>
       <c r="B110" s="6">
         <v>999.75</v>
@@ -2018,60 +2324,60 @@
         <v>999.75</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
-        <v>43209.0</v>
+        <v>43209</v>
       </c>
       <c r="B111" s="6">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="C111" s="6">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="D111" s="6">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="E111" s="6">
-        <v>1001.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
-        <v>43210.0</v>
+        <v>43210</v>
       </c>
       <c r="B112" s="6">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="C112" s="6">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="D112" s="6">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="E112" s="6">
-        <v>996.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
-        <v>43213.0</v>
+        <v>43213</v>
       </c>
       <c r="B113" s="6">
-        <v>994.0</v>
+        <v>994</v>
       </c>
       <c r="C113" s="6">
-        <v>994.0</v>
+        <v>994</v>
       </c>
       <c r="D113" s="6">
-        <v>994.0</v>
+        <v>994</v>
       </c>
       <c r="E113" s="6">
-        <v>994.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
-        <v>43214.0</v>
+        <v>43214</v>
       </c>
       <c r="B114" s="6">
         <v>990.25</v>
@@ -2086,9 +2392,9 @@
         <v>990.25</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
-        <v>43215.0</v>
+        <v>43215</v>
       </c>
       <c r="B115" s="6">
         <v>992.25</v>
@@ -2103,9 +2409,9 @@
         <v>992.25</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
-        <v>43216.0</v>
+        <v>43216</v>
       </c>
       <c r="B116" s="6">
         <v>991.25</v>
@@ -2120,43 +2426,43 @@
         <v>991.25</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
-        <v>43217.0</v>
+        <v>43217</v>
       </c>
       <c r="B117" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C117" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D117" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E117" s="6">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
-        <v>43220.0</v>
+        <v>43220</v>
       </c>
       <c r="B118" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C118" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D118" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E118" s="6">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
-        <v>43221.0</v>
+        <v>43221</v>
       </c>
       <c r="B119" s="6">
         <v>1006.75</v>
@@ -2171,26 +2477,26 @@
         <v>1006.75</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
-        <v>43222.0</v>
+        <v>43222</v>
       </c>
       <c r="B120" s="6">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="C120" s="6">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="D120" s="6">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="E120" s="6">
-        <v>999.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
-        <v>43223.0</v>
+        <v>43223</v>
       </c>
       <c r="B121" s="6">
         <v>999.25</v>
@@ -2205,9 +2511,9 @@
         <v>999.25</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
-        <v>43224.0</v>
+        <v>43224</v>
       </c>
       <c r="B122" s="6">
         <v>996.25</v>
@@ -2222,9 +2528,9 @@
         <v>996.25</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
-        <v>43227.0</v>
+        <v>43227</v>
       </c>
       <c r="B123" s="6">
         <v>983.5</v>
@@ -2239,9 +2545,9 @@
         <v>983.5</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
-        <v>43228.0</v>
+        <v>43228</v>
       </c>
       <c r="B124" s="6">
         <v>985.5</v>
@@ -2256,9 +2562,9 @@
         <v>985.5</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
-        <v>43229.0</v>
+        <v>43229</v>
       </c>
       <c r="B125" s="6">
         <v>982.25</v>
@@ -2273,26 +2579,26 @@
         <v>982.25</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
-        <v>43230.0</v>
+        <v>43230</v>
       </c>
       <c r="B126" s="6">
-        <v>987.0</v>
+        <v>987</v>
       </c>
       <c r="C126" s="6">
-        <v>987.0</v>
+        <v>987</v>
       </c>
       <c r="D126" s="6">
-        <v>987.0</v>
+        <v>987</v>
       </c>
       <c r="E126" s="6">
-        <v>987.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
-        <v>43231.0</v>
+        <v>43231</v>
       </c>
       <c r="B127" s="6">
         <v>983.75</v>
@@ -2307,9 +2613,9 @@
         <v>983.75</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
-        <v>43234.0</v>
+        <v>43234</v>
       </c>
       <c r="B128" s="6">
         <v>984.75</v>
@@ -2324,9 +2630,9 @@
         <v>984.75</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
-        <v>43235.0</v>
+        <v>43235</v>
       </c>
       <c r="B129" s="6">
         <v>984.75</v>
@@ -2341,49 +2647,49 @@
         <v>984.75</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
-        <v>43236.0</v>
+        <v>43236</v>
       </c>
       <c r="B130" s="6">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="C130" s="6">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="D130" s="6">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="E130" s="6">
-        <v>984.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
-        <v>43237.0</v>
+        <v>43237</v>
       </c>
       <c r="B131" s="6">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="C131" s="6">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="D131" s="6">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="E131" s="6">
-        <v>983.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
-        <v>43238.0</v>
+        <v>43238</v>
       </c>
       <c r="B132" s="6">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="C132" s="6">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="D132" s="6">
         <v>980.5</v>
@@ -2392,9 +2698,9 @@
         <v>980.5</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
-        <v>43241.0</v>
+        <v>43241</v>
       </c>
       <c r="B133" s="6">
         <v>997.5</v>
@@ -2409,26 +2715,26 @@
         <v>997.5</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
-        <v>43242.0</v>
+        <v>43242</v>
       </c>
       <c r="B134" s="6">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="C134" s="6">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="D134" s="6">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="E134" s="6">
-        <v>999.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
-        <v>43243.0</v>
+        <v>43243</v>
       </c>
       <c r="B135" s="6">
         <v>1006.25</v>
@@ -2443,43 +2749,43 @@
         <v>1006.25</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
-        <v>43244.0</v>
+        <v>43244</v>
       </c>
       <c r="B136" s="6">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="C136" s="6">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="D136" s="6">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="E136" s="6">
-        <v>1003.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
-        <v>43245.0</v>
+        <v>43245</v>
       </c>
       <c r="B137" s="6">
-        <v>1006.0</v>
+        <v>1006</v>
       </c>
       <c r="C137" s="6">
-        <v>1006.0</v>
+        <v>1006</v>
       </c>
       <c r="D137" s="6">
-        <v>1006.0</v>
+        <v>1006</v>
       </c>
       <c r="E137" s="6">
-        <v>1006.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
-        <v>43249.0</v>
+        <v>43249</v>
       </c>
       <c r="B138" s="6">
         <v>997.5</v>
@@ -2494,9 +2800,9 @@
         <v>997.5</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
-        <v>43250.0</v>
+        <v>43250</v>
       </c>
       <c r="B139" s="6">
         <v>998.25</v>
@@ -2511,9 +2817,9 @@
         <v>998.25</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
-        <v>43251.0</v>
+        <v>43251</v>
       </c>
       <c r="B140" s="6">
         <v>1000.5</v>
@@ -2528,9 +2834,9 @@
         <v>1000.5</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
-        <v>43252.0</v>
+        <v>43252</v>
       </c>
       <c r="B141" s="6">
         <v>1004.75</v>
@@ -2545,9 +2851,9 @@
         <v>1004.75</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
-        <v>43255.0</v>
+        <v>43255</v>
       </c>
       <c r="B142" s="6">
         <v>994.25</v>
@@ -2562,9 +2868,9 @@
         <v>994.25</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
-        <v>43256.0</v>
+        <v>43256</v>
       </c>
       <c r="B143" s="6">
         <v>998.25</v>
@@ -2579,9 +2885,9 @@
         <v>998.25</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
-        <v>43257.0</v>
+        <v>43257</v>
       </c>
       <c r="B144" s="6">
         <v>996.5</v>
@@ -2596,9 +2902,9 @@
         <v>996.5</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
-        <v>43258.0</v>
+        <v>43258</v>
       </c>
       <c r="B145" s="6">
         <v>990.5</v>
@@ -2613,9 +2919,9 @@
         <v>990.5</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
-        <v>43259.0</v>
+        <v>43259</v>
       </c>
       <c r="B146" s="6">
         <v>984.5</v>
@@ -2630,9 +2936,9 @@
         <v>984.5</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
-        <v>43262.0</v>
+        <v>43262</v>
       </c>
       <c r="B147" s="6">
         <v>976.25</v>
@@ -2647,9 +2953,9 @@
         <v>976.25</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
-        <v>43263.0</v>
+        <v>43263</v>
       </c>
       <c r="B148" s="6">
         <v>977.25</v>
@@ -2664,15 +2970,15 @@
         <v>977.25</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
-        <v>43264.0</v>
+        <v>43264</v>
       </c>
       <c r="B149" s="6">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="C149" s="6">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="D149" s="6">
         <v>968.5</v>
@@ -2681,9 +2987,9 @@
         <v>968.5</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
-        <v>43265.0</v>
+        <v>43265</v>
       </c>
       <c r="B150" s="6">
         <v>959.25</v>
@@ -2698,26 +3004,26 @@
         <v>959.25</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
-        <v>43266.0</v>
+        <v>43266</v>
       </c>
       <c r="B151" s="6">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="C151" s="6">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="D151" s="6">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="E151" s="6">
-        <v>949.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
-        <v>43269.0</v>
+        <v>43269</v>
       </c>
       <c r="B152" s="6">
         <v>947.75</v>
@@ -2732,9 +3038,9 @@
         <v>947.75</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
-        <v>43270.0</v>
+        <v>43270</v>
       </c>
       <c r="B153" s="6">
         <v>936.25</v>
@@ -2749,9 +3055,9 @@
         <v>936.25</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
-        <v>43271.0</v>
+        <v>43271</v>
       </c>
       <c r="B154" s="6">
         <v>939.25</v>
@@ -2766,9 +3072,9 @@
         <v>939.25</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
-        <v>43272.0</v>
+        <v>43272</v>
       </c>
       <c r="B155" s="6">
         <v>930.75</v>
@@ -2783,9 +3089,9 @@
         <v>930.75</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
-        <v>43273.0</v>
+        <v>43273</v>
       </c>
       <c r="B156" s="6">
         <v>938.75</v>
@@ -2800,9 +3106,9 @@
         <v>938.75</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
-        <v>43276.0</v>
+        <v>43276</v>
       </c>
       <c r="B157" s="6">
         <v>921.75</v>
@@ -2817,9 +3123,9 @@
         <v>921.75</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
-        <v>43277.0</v>
+        <v>43277</v>
       </c>
       <c r="B158" s="6">
         <v>917.75</v>
@@ -2834,9 +3140,9 @@
         <v>917.75</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
-        <v>43278.0</v>
+        <v>43278</v>
       </c>
       <c r="B159" s="6">
         <v>919.25</v>
@@ -2851,9 +3157,9 @@
         <v>919.25</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
-        <v>43279.0</v>
+        <v>43279</v>
       </c>
       <c r="B160" s="6">
         <v>915.75</v>
@@ -2868,9 +3174,9 @@
         <v>915.75</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
-        <v>43280.0</v>
+        <v>43280</v>
       </c>
       <c r="B161" s="6">
         <v>912.75</v>
@@ -2885,9 +3191,9 @@
         <v>912.75</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
-        <v>43283.0</v>
+        <v>43283</v>
       </c>
       <c r="B162" s="6">
         <v>908.75</v>
@@ -2902,26 +3208,26 @@
         <v>908.75</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
-        <v>43284.0</v>
+        <v>43284</v>
       </c>
       <c r="B163" s="6">
-        <v>906.0</v>
+        <v>906</v>
       </c>
       <c r="C163" s="6">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="D163" s="6">
-        <v>906.0</v>
+        <v>906</v>
       </c>
       <c r="E163" s="6">
-        <v>906.0</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
-        <v>43286.0</v>
+        <v>43286</v>
       </c>
       <c r="B164" s="6">
         <v>900.5</v>
@@ -2930,32 +3236,32 @@
         <v>900.75</v>
       </c>
       <c r="D164" s="6">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="E164" s="6">
         <v>900.75</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
-        <v>43287.0</v>
+        <v>43287</v>
       </c>
       <c r="B165" s="6">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="C165" s="6">
         <v>930.75</v>
       </c>
       <c r="D165" s="6">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="E165" s="6">
-        <v>929.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
-        <v>43290.0</v>
+        <v>43290</v>
       </c>
       <c r="B166" s="6">
         <v>919.25</v>
@@ -2964,15 +3270,15 @@
         <v>919.25</v>
       </c>
       <c r="D166" s="6">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="E166" s="6">
         <v>914.75</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
-        <v>43291.0</v>
+        <v>43291</v>
       </c>
       <c r="B167" s="6">
         <v>917.75</v>
@@ -2987,29 +3293,29 @@
         <v>917.75</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
-        <v>43292.0</v>
+        <v>43292</v>
       </c>
       <c r="B168" s="6">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="C168" s="6">
         <v>912.5</v>
       </c>
       <c r="D168" s="6">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="E168" s="6">
         <v>903.5</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
-        <v>43293.0</v>
+        <v>43293</v>
       </c>
       <c r="B169" s="6">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="C169" s="6">
         <v>908.5</v>
@@ -3021,9 +3327,9 @@
         <v>905.25</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
-        <v>43294.0</v>
+        <v>43294</v>
       </c>
       <c r="B170" s="6">
         <v>896.5</v>
@@ -3038,12 +3344,12 @@
         <v>896.5</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
-        <v>43297.0</v>
+        <v>43297</v>
       </c>
       <c r="B171" s="6">
-        <v>911.0</v>
+        <v>911</v>
       </c>
       <c r="C171" s="6">
         <v>911.75</v>
@@ -3055,26 +3361,26 @@
         <v>904.75</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
-        <v>43298.0</v>
+        <v>43298</v>
       </c>
       <c r="B172" s="6">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="C172" s="6">
         <v>914.25</v>
       </c>
       <c r="D172" s="6">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="E172" s="6">
-        <v>909.0</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
-        <v>43299.0</v>
+        <v>43299</v>
       </c>
       <c r="B173" s="6">
         <v>910.75</v>
@@ -3089,9 +3395,9 @@
         <v>910.75</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
-        <v>43300.0</v>
+        <v>43300</v>
       </c>
       <c r="B174" s="6">
         <v>916.25</v>
@@ -3100,15 +3406,15 @@
         <v>916.25</v>
       </c>
       <c r="D174" s="6">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="E174" s="6">
         <v>916.25</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
-        <v>43301.0</v>
+        <v>43301</v>
       </c>
       <c r="B175" s="6">
         <v>918.25</v>
@@ -3123,12 +3429,12 @@
         <v>918.25</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
-        <v>43304.0</v>
+        <v>43304</v>
       </c>
       <c r="B176" s="6">
-        <v>922.0</v>
+        <v>922</v>
       </c>
       <c r="C176" s="6">
         <v>922.75</v>
@@ -3140,9 +3446,9 @@
         <v>918.25</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
-        <v>43305.0</v>
+        <v>43305</v>
       </c>
       <c r="B177" s="6">
         <v>916.5</v>
@@ -3157,9 +3463,9 @@
         <v>926.75</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
-        <v>43306.0</v>
+        <v>43306</v>
       </c>
       <c r="B178" s="6">
         <v>928.75</v>
@@ -3171,12 +3477,12 @@
         <v>925.75</v>
       </c>
       <c r="E178" s="6">
-        <v>931.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
-        <v>43307.0</v>
+        <v>43307</v>
       </c>
       <c r="B179" s="6">
         <v>932.5</v>
@@ -3191,26 +3497,26 @@
         <v>927.75</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
-        <v>43308.0</v>
+        <v>43308</v>
       </c>
       <c r="B180" s="6">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="C180" s="6">
         <v>936.5</v>
       </c>
       <c r="D180" s="6">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="E180" s="6">
         <v>934.75</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
-        <v>43311.0</v>
+        <v>43311</v>
       </c>
       <c r="B181" s="6">
         <v>939.75</v>
@@ -3225,26 +3531,26 @@
         <v>939.75</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
-        <v>43312.0</v>
+        <v>43312</v>
       </c>
       <c r="B182" s="6">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="C182" s="6">
         <v>963.75</v>
       </c>
       <c r="D182" s="6">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="E182" s="6">
-        <v>961.0</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
-        <v>43313.0</v>
+        <v>43313</v>
       </c>
       <c r="B183" s="6">
         <v>950.75</v>
@@ -3253,15 +3559,15 @@
         <v>950.75</v>
       </c>
       <c r="D183" s="6">
-        <v>948.0</v>
+        <v>948</v>
       </c>
       <c r="E183" s="6">
         <v>950.75</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
-        <v>43314.0</v>
+        <v>43314</v>
       </c>
       <c r="B184" s="6">
         <v>950.25</v>
@@ -3276,9 +3582,9 @@
         <v>949.5</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
-        <v>43315.0</v>
+        <v>43315</v>
       </c>
       <c r="B185" s="6">
         <v>953.25</v>
@@ -3293,26 +3599,26 @@
         <v>953.25</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
-        <v>43318.0</v>
+        <v>43318</v>
       </c>
       <c r="B186" s="6">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="C186" s="6">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="D186" s="6">
         <v>941.25</v>
       </c>
       <c r="E186" s="6">
-        <v>946.0</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
-        <v>43319.0</v>
+        <v>43319</v>
       </c>
       <c r="B187" s="6">
         <v>952.25</v>
@@ -3327,9 +3633,9 @@
         <v>955.75</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
-        <v>43320.0</v>
+        <v>43320</v>
       </c>
       <c r="B188" s="6">
         <v>962.5</v>
@@ -3344,26 +3650,26 @@
         <v>962.5</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
-        <v>43321.0</v>
+        <v>43321</v>
       </c>
       <c r="B189" s="6">
         <v>959.75</v>
       </c>
       <c r="C189" s="6">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="D189" s="6">
         <v>955.25</v>
       </c>
       <c r="E189" s="6">
-        <v>956.0</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
-        <v>43322.0</v>
+        <v>43322</v>
       </c>
       <c r="B190" s="6">
         <v>926.75</v>
@@ -3378,15 +3684,15 @@
         <v>926.75</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
-        <v>43325.0</v>
+        <v>43325</v>
       </c>
       <c r="B191" s="6">
         <v>929.75</v>
       </c>
       <c r="C191" s="6">
-        <v>931.0</v>
+        <v>931</v>
       </c>
       <c r="D191" s="6">
         <v>921.25</v>
@@ -3395,9 +3701,9 @@
         <v>929.75</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
-        <v>43326.0</v>
+        <v>43326</v>
       </c>
       <c r="B192" s="6">
         <v>932.75</v>
@@ -3406,32 +3712,32 @@
         <v>936.5</v>
       </c>
       <c r="D192" s="6">
-        <v>929.0</v>
+        <v>929</v>
       </c>
       <c r="E192" s="6">
         <v>936.5</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
-        <v>43327.0</v>
+        <v>43327</v>
       </c>
       <c r="B193" s="6">
-        <v>933.0</v>
+        <v>933</v>
       </c>
       <c r="C193" s="6">
         <v>937.25</v>
       </c>
       <c r="D193" s="6">
-        <v>932.0</v>
+        <v>932</v>
       </c>
       <c r="E193" s="6">
-        <v>933.0</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
-        <v>43328.0</v>
+        <v>43328</v>
       </c>
       <c r="B194" s="6">
         <v>953.25</v>
@@ -3446,9 +3752,9 @@
         <v>953.25</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
-        <v>43329.0</v>
+        <v>43329</v>
       </c>
       <c r="B195" s="6">
         <v>944.75</v>
@@ -3457,15 +3763,15 @@
         <v>950.75</v>
       </c>
       <c r="D195" s="6">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="E195" s="6">
         <v>947.75</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
-        <v>43332.0</v>
+        <v>43332</v>
       </c>
       <c r="B196" s="6">
         <v>947.75</v>
@@ -3480,9 +3786,9 @@
         <v>947.75</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
-        <v>43333.0</v>
+        <v>43333</v>
       </c>
       <c r="B197" s="6">
         <v>945.25</v>
@@ -3497,9 +3803,9 @@
         <v>945.25</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
-        <v>43334.0</v>
+        <v>43334</v>
       </c>
       <c r="B198" s="6">
         <v>934.75</v>
@@ -3514,9 +3820,9 @@
         <v>934.75</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
-        <v>43335.0</v>
+        <v>43335</v>
       </c>
       <c r="B199" s="6">
         <v>919.5</v>
@@ -3531,9 +3837,9 @@
         <v>919.5</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
-        <v>43336.0</v>
+        <v>43336</v>
       </c>
       <c r="B200" s="6">
         <v>921.25</v>
@@ -3548,26 +3854,26 @@
         <v>921.25</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
-        <v>43339.0</v>
+        <v>43339</v>
       </c>
       <c r="B201" s="6">
         <v>911.5</v>
       </c>
       <c r="C201" s="6">
-        <v>919.0</v>
+        <v>919</v>
       </c>
       <c r="D201" s="6">
         <v>911.25</v>
       </c>
       <c r="E201" s="6">
-        <v>919.0</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
-        <v>43340.0</v>
+        <v>43340</v>
       </c>
       <c r="B202" s="6">
         <v>911.75</v>
@@ -3582,15 +3888,15 @@
         <v>911.75</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
-        <v>43341.0</v>
+        <v>43341</v>
       </c>
       <c r="B203" s="6">
         <v>914.5</v>
       </c>
       <c r="C203" s="6">
-        <v>919.0</v>
+        <v>919</v>
       </c>
       <c r="D203" s="6">
         <v>914.5</v>
@@ -3599,26 +3905,26 @@
         <v>914.5</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
-        <v>43342.0</v>
+        <v>43342</v>
       </c>
       <c r="B204" s="6">
-        <v>907.0</v>
+        <v>907</v>
       </c>
       <c r="C204" s="6">
         <v>915.5</v>
       </c>
       <c r="D204" s="6">
-        <v>907.0</v>
+        <v>907</v>
       </c>
       <c r="E204" s="6">
         <v>908.5</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
-        <v>43343.0</v>
+        <v>43343</v>
       </c>
       <c r="B205" s="6">
         <v>920.75</v>
@@ -3630,46 +3936,46 @@
         <v>920.5</v>
       </c>
       <c r="E205" s="6">
-        <v>921.0</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
-        <v>43347.0</v>
+        <v>43347</v>
       </c>
       <c r="B206" s="6">
-        <v>921.0</v>
+        <v>921</v>
       </c>
       <c r="C206" s="6">
         <v>925.5</v>
       </c>
       <c r="D206" s="6">
-        <v>917.0</v>
+        <v>917</v>
       </c>
       <c r="E206" s="6">
         <v>920.75</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
-        <v>43348.0</v>
+        <v>43348</v>
       </c>
       <c r="B207" s="6">
-        <v>916.0</v>
+        <v>916</v>
       </c>
       <c r="C207" s="6">
-        <v>916.0</v>
+        <v>916</v>
       </c>
       <c r="D207" s="6">
         <v>915.25</v>
       </c>
       <c r="E207" s="6">
-        <v>916.0</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
-        <v>43349.0</v>
+        <v>43349</v>
       </c>
       <c r="B208" s="6">
         <v>916.5</v>
@@ -3681,12 +3987,12 @@
         <v>914.5</v>
       </c>
       <c r="E208" s="6">
-        <v>918.0</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
-        <v>43350.0</v>
+        <v>43350</v>
       </c>
       <c r="B209" s="6">
         <v>923.25</v>
@@ -3701,9 +4007,9 @@
         <v>923.25</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
-        <v>43353.0</v>
+        <v>43353</v>
       </c>
       <c r="B210" s="6">
         <v>923.75</v>
@@ -3715,15 +4021,15 @@
         <v>922.25</v>
       </c>
       <c r="E210" s="6">
-        <v>923.0</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
-        <v>43354.0</v>
+        <v>43354</v>
       </c>
       <c r="B211" s="6">
-        <v>914.0</v>
+        <v>914</v>
       </c>
       <c r="C211" s="6">
         <v>915.75</v>
@@ -3735,26 +4041,26 @@
         <v>909.75</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
-        <v>43355.0</v>
+        <v>43355</v>
       </c>
       <c r="B212" s="6">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="C212" s="6">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="D212" s="6">
         <v>906.5</v>
       </c>
       <c r="E212" s="6">
-        <v>920.0</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
-        <v>43356.0</v>
+        <v>43356</v>
       </c>
       <c r="B213" s="6">
         <v>915.5</v>
@@ -3769,9 +4075,9 @@
         <v>915.5</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
-        <v>43357.0</v>
+        <v>43357</v>
       </c>
       <c r="B214" s="6">
         <v>915.25</v>
@@ -3786,15 +4092,15 @@
         <v>915.25</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
-        <v>43360.0</v>
+        <v>43360</v>
       </c>
       <c r="B215" s="6">
         <v>913.75</v>
       </c>
       <c r="C215" s="6">
-        <v>917.0</v>
+        <v>917</v>
       </c>
       <c r="D215" s="6">
         <v>910.5</v>
@@ -3803,9 +4109,9 @@
         <v>914.25</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
-        <v>43361.0</v>
+        <v>43361</v>
       </c>
       <c r="B216" s="6">
         <v>907.75</v>
@@ -3814,32 +4120,32 @@
         <v>907.75</v>
       </c>
       <c r="D216" s="6">
-        <v>905.0</v>
+        <v>905</v>
       </c>
       <c r="E216" s="6">
         <v>905.75</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
-        <v>43362.0</v>
+        <v>43362</v>
       </c>
       <c r="B217" s="6">
-        <v>916.0</v>
+        <v>916</v>
       </c>
       <c r="C217" s="6">
-        <v>918.0</v>
+        <v>918</v>
       </c>
       <c r="D217" s="6">
         <v>915.75</v>
       </c>
       <c r="E217" s="6">
-        <v>916.0</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
-        <v>43363.0</v>
+        <v>43363</v>
       </c>
       <c r="B218" s="6">
         <v>920.25</v>
@@ -3854,9 +4160,9 @@
         <v>935.25</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
-        <v>43364.0</v>
+        <v>43364</v>
       </c>
       <c r="B219" s="6">
         <v>936.5</v>
@@ -3871,9 +4177,9 @@
         <v>936.5</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
-        <v>43367.0</v>
+        <v>43367</v>
       </c>
       <c r="B220" s="6">
         <v>936.5</v>
@@ -3888,26 +4194,26 @@
         <v>935.25</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
-        <v>43368.0</v>
+        <v>43368</v>
       </c>
       <c r="B221" s="6">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="C221" s="6">
         <v>946.25</v>
       </c>
       <c r="D221" s="6">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="E221" s="6">
-        <v>937.0</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
-        <v>43369.0</v>
+        <v>43369</v>
       </c>
       <c r="B222" s="6">
         <v>938.5</v>
@@ -3922,15 +4228,15 @@
         <v>938.5</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
-        <v>43370.0</v>
+        <v>43370</v>
       </c>
       <c r="B223" s="6">
         <v>941.5</v>
       </c>
       <c r="C223" s="6">
-        <v>944.0</v>
+        <v>944</v>
       </c>
       <c r="D223" s="6">
         <v>940.5</v>
@@ -3939,60 +4245,60 @@
         <v>943.25</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
-        <v>43371.0</v>
+        <v>43371</v>
       </c>
       <c r="B224" s="6">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="C224" s="6">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="D224" s="6">
         <v>934.75</v>
       </c>
       <c r="E224" s="6">
-        <v>937.0</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
-        <v>43374.0</v>
+        <v>43374</v>
       </c>
       <c r="B225" s="6">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="C225" s="6">
         <v>949.25</v>
       </c>
       <c r="D225" s="6">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="E225" s="6">
         <v>946.5</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
-        <v>43375.0</v>
+        <v>43375</v>
       </c>
       <c r="B226" s="6">
         <v>950.25</v>
       </c>
       <c r="C226" s="6">
-        <v>955.0</v>
+        <v>955</v>
       </c>
       <c r="D226" s="6">
         <v>949.75</v>
       </c>
       <c r="E226" s="6">
-        <v>955.0</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
-        <v>43376.0</v>
+        <v>43376</v>
       </c>
       <c r="B227" s="6">
         <v>953.5</v>
@@ -4007,43 +4313,43 @@
         <v>953.75</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
-        <v>43377.0</v>
+        <v>43377</v>
       </c>
       <c r="B228" s="6">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="C228" s="6">
-        <v>957.0</v>
+        <v>957</v>
       </c>
       <c r="D228" s="6">
         <v>951.75</v>
       </c>
       <c r="E228" s="6">
-        <v>952.0</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
-        <v>43378.0</v>
+        <v>43378</v>
       </c>
       <c r="B229" s="6">
         <v>959.5</v>
       </c>
       <c r="C229" s="6">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="D229" s="6">
         <v>947.25</v>
       </c>
       <c r="E229" s="6">
-        <v>961.0</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
-        <v>43381.0</v>
+        <v>43381</v>
       </c>
       <c r="B230" s="6">
         <v>960.75</v>
@@ -4058,9 +4364,9 @@
         <v>959.25</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
-        <v>43382.0</v>
+        <v>43382</v>
       </c>
       <c r="B231" s="6">
         <v>956.25</v>
@@ -4075,9 +4381,9 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
-        <v>43383.0</v>
+        <v>43383</v>
       </c>
       <c r="B232" s="6">
         <v>944.75</v>
@@ -4089,12 +4395,12 @@
         <v>940.75</v>
       </c>
       <c r="E232" s="6">
-        <v>944.0</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
-        <v>43384.0</v>
+        <v>43384</v>
       </c>
       <c r="B233" s="6">
         <v>942.75</v>
@@ -4103,15 +4409,15 @@
         <v>950.5</v>
       </c>
       <c r="D233" s="6">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="E233" s="6">
         <v>950.5</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
-        <v>43385.0</v>
+        <v>43385</v>
       </c>
       <c r="B234" s="6">
         <v>955.5</v>
@@ -4126,9 +4432,9 @@
         <v>957.5</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
-        <v>43388.0</v>
+        <v>43388</v>
       </c>
       <c r="B235" s="6">
         <v>957.75</v>
@@ -4143,9 +4449,9 @@
         <v>975.5</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
-        <v>43389.0</v>
+        <v>43389</v>
       </c>
       <c r="B236" s="6">
         <v>970.25</v>
@@ -4160,26 +4466,26 @@
         <v>970.25</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
-        <v>43390.0</v>
+        <v>43390</v>
       </c>
       <c r="B237" s="6">
-        <v>969.0</v>
+        <v>969</v>
       </c>
       <c r="C237" s="6">
-        <v>972.0</v>
+        <v>972</v>
       </c>
       <c r="D237" s="6">
         <v>968.5</v>
       </c>
       <c r="E237" s="6">
-        <v>969.0</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
-        <v>43391.0</v>
+        <v>43391</v>
       </c>
       <c r="B238" s="6">
         <v>950.5</v>
@@ -4194,9 +4500,9 @@
         <v>950.5</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
-        <v>43392.0</v>
+        <v>43392</v>
       </c>
       <c r="B239" s="6">
         <v>945.5</v>
@@ -4211,15 +4517,15 @@
         <v>943.25</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
-        <v>43395.0</v>
+        <v>43395</v>
       </c>
       <c r="B240" s="6">
-        <v>948.0</v>
+        <v>948</v>
       </c>
       <c r="C240" s="6">
-        <v>948.0</v>
+        <v>948</v>
       </c>
       <c r="D240" s="6">
         <v>944.75</v>
@@ -4228,9 +4534,9 @@
         <v>944.75</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
-        <v>43396.0</v>
+        <v>43396</v>
       </c>
       <c r="B241" s="6">
         <v>943.25</v>
@@ -4245,9 +4551,9 @@
         <v>944.5</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
-        <v>43397.0</v>
+        <v>43397</v>
       </c>
       <c r="B242" s="6">
         <v>943.25</v>
@@ -4262,15 +4568,15 @@
         <v>941.75</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
-        <v>43398.0</v>
+        <v>43398</v>
       </c>
       <c r="B243" s="6">
         <v>936.25</v>
       </c>
       <c r="C243" s="6">
-        <v>938.0</v>
+        <v>938</v>
       </c>
       <c r="D243" s="6">
         <v>931.75</v>
@@ -4279,26 +4585,26 @@
         <v>933.5</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
-        <v>43399.0</v>
+        <v>43399</v>
       </c>
       <c r="B244" s="6">
         <v>939.25</v>
       </c>
       <c r="C244" s="6">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="D244" s="6">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="E244" s="6">
-        <v>936.0</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
-        <v>43402.0</v>
+        <v>43402</v>
       </c>
       <c r="B245" s="6">
         <v>943.25</v>
@@ -4310,15 +4616,15 @@
         <v>930.5</v>
       </c>
       <c r="E245" s="6">
-        <v>932.0</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
-        <v>43403.0</v>
+        <v>43403</v>
       </c>
       <c r="B246" s="6">
-        <v>927.0</v>
+        <v>927</v>
       </c>
       <c r="C246" s="6">
         <v>933.25</v>
@@ -4327,29 +4633,29 @@
         <v>926.75</v>
       </c>
       <c r="E246" s="6">
-        <v>927.0</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
-        <v>43404.0</v>
+        <v>43404</v>
       </c>
       <c r="B247" s="6">
         <v>930.75</v>
       </c>
       <c r="C247" s="6">
-        <v>932.0</v>
+        <v>932</v>
       </c>
       <c r="D247" s="6">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="E247" s="6">
         <v>930.75</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
-        <v>43405.0</v>
+        <v>43405</v>
       </c>
       <c r="B248" s="6">
         <v>957.5</v>
@@ -4364,9 +4670,9 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
-        <v>43406.0</v>
+        <v>43406</v>
       </c>
       <c r="B249" s="6">
         <v>956.5</v>
@@ -4375,32 +4681,32 @@
         <v>964.5</v>
       </c>
       <c r="D249" s="6">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="E249" s="6">
-        <v>957.0</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
-        <v>43409.0</v>
+        <v>43409</v>
       </c>
       <c r="B250" s="6">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="C250" s="6">
         <v>963.75</v>
       </c>
       <c r="D250" s="6">
-        <v>954.0</v>
+        <v>954</v>
       </c>
       <c r="E250" s="6">
-        <v>959.0</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
-        <v>43410.0</v>
+        <v>43410</v>
       </c>
       <c r="B251" s="6">
         <v>958.75</v>
@@ -4415,9 +4721,9 @@
         <v>958.75</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
-        <v>43411.0</v>
+        <v>43411</v>
       </c>
       <c r="B252" s="6">
         <v>954.75</v>
@@ -4432,9 +4738,9 @@
         <v>954.75</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
-        <v>43412.0</v>
+        <v>43412</v>
       </c>
       <c r="B253" s="6">
         <v>946.75</v>
@@ -4449,9 +4755,9 @@
         <v>956.5</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
-        <v>43413.0</v>
+        <v>43413</v>
       </c>
       <c r="B254" s="6">
         <v>961.25</v>
@@ -4460,15 +4766,15 @@
         <v>961.5</v>
       </c>
       <c r="D254" s="6">
-        <v>954.0</v>
+        <v>954</v>
       </c>
       <c r="E254" s="6">
         <v>961.25</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
-        <v>43416.0</v>
+        <v>43416</v>
       </c>
       <c r="B255" s="6">
         <v>960.5</v>
@@ -4477,15 +4783,15 @@
         <v>960.5</v>
       </c>
       <c r="D255" s="6">
-        <v>957.0</v>
+        <v>957</v>
       </c>
       <c r="E255" s="6">
         <v>960.5</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
-        <v>43417.0</v>
+        <v>43417</v>
       </c>
       <c r="B256" s="6">
         <v>956.5</v>
@@ -4494,32 +4800,32 @@
         <v>962.5</v>
       </c>
       <c r="D256" s="6">
-        <v>956.0</v>
+        <v>956</v>
       </c>
       <c r="E256" s="6">
         <v>956.75</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
-        <v>43418.0</v>
+        <v>43418</v>
       </c>
       <c r="B257" s="6">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="C257" s="6">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="D257" s="6">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="E257" s="6">
         <v>963.5</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
-        <v>43419.0</v>
+        <v>43419</v>
       </c>
       <c r="B258" s="6">
         <v>963.25</v>
@@ -4534,12 +4840,12 @@
         <v>963.25</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
-        <v>43420.0</v>
+        <v>43420</v>
       </c>
       <c r="B259" s="6">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="C259" s="6">
         <v>966.75</v>
@@ -4551,15 +4857,15 @@
         <v>963.25</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
-        <v>43423.0</v>
+        <v>43423</v>
       </c>
       <c r="B260" s="6">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="C260" s="6">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="D260" s="6">
         <v>947.75</v>
@@ -4568,15 +4874,15 @@
         <v>949.25</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
-        <v>43424.0</v>
+        <v>43424</v>
       </c>
       <c r="B261" s="6">
         <v>952.25</v>
       </c>
       <c r="C261" s="6">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="D261" s="6">
         <v>952.25</v>
@@ -4585,26 +4891,26 @@
         <v>956.75</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
-        <v>43425.0</v>
+        <v>43425</v>
       </c>
       <c r="B262" s="6">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="C262" s="6">
         <v>963.5</v>
       </c>
       <c r="D262" s="6">
-        <v>954.0</v>
+        <v>954</v>
       </c>
       <c r="E262" s="6">
-        <v>958.0</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
-        <v>43427.0</v>
+        <v>43427</v>
       </c>
       <c r="B263" s="6">
         <v>956.75</v>
@@ -4616,29 +4922,29 @@
         <v>955.5</v>
       </c>
       <c r="E263" s="6">
-        <v>958.0</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
-        <v>43430.0</v>
+        <v>43430</v>
       </c>
       <c r="B264" s="6">
         <v>943.5</v>
       </c>
       <c r="C264" s="6">
-        <v>944.0</v>
+        <v>944</v>
       </c>
       <c r="D264" s="6">
         <v>939.75</v>
       </c>
       <c r="E264" s="6">
-        <v>944.0</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
-        <v>43431.0</v>
+        <v>43431</v>
       </c>
       <c r="B265" s="6">
         <v>954.5</v>
@@ -4653,9 +4959,9 @@
         <v>954.5</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
-        <v>43432.0</v>
+        <v>43432</v>
       </c>
       <c r="B266" s="6">
         <v>963.75</v>
@@ -4670,15 +4976,15 @@
         <v>963.75</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
-        <v>43433.0</v>
+        <v>43433</v>
       </c>
       <c r="B267" s="6">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="C267" s="6">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="D267" s="6">
         <v>958.25</v>
@@ -4687,26 +4993,26 @@
         <v>958.75</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
-        <v>43434.0</v>
+        <v>43434</v>
       </c>
       <c r="B268" s="6">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="C268" s="6">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="D268" s="6">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="E268" s="6">
-        <v>964.0</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
-        <v>43437.0</v>
+        <v>43437</v>
       </c>
       <c r="B269" s="6">
         <v>978.5</v>
@@ -4721,15 +5027,15 @@
         <v>974.5</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
-        <v>43438.0</v>
+        <v>43438</v>
       </c>
       <c r="B270" s="6">
         <v>975.5</v>
       </c>
       <c r="C270" s="6">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="D270" s="6">
         <v>973.5</v>
@@ -4738,26 +5044,26 @@
         <v>978.25</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
-        <v>43439.0</v>
+        <v>43439</v>
       </c>
       <c r="B271" s="6">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="C271" s="6">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="D271" s="6">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="E271" s="6">
-        <v>979.0</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
-        <v>43440.0</v>
+        <v>43440</v>
       </c>
       <c r="B272" s="6">
         <v>970.25</v>
@@ -4769,12 +5075,12 @@
         <v>968.25</v>
       </c>
       <c r="E272" s="6">
-        <v>978.0</v>
-      </c>
-    </row>
-    <row r="273">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
-        <v>43441.0</v>
+        <v>43441</v>
       </c>
       <c r="B273" s="6">
         <v>984.25</v>
@@ -4789,26 +5095,26 @@
         <v>984.25</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
-        <v>43444.0</v>
+        <v>43444</v>
       </c>
       <c r="B274" s="6">
-        <v>981.0</v>
+        <v>981</v>
       </c>
       <c r="C274" s="6">
-        <v>981.0</v>
+        <v>981</v>
       </c>
       <c r="D274" s="6">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="E274" s="6">
-        <v>981.0</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
-        <v>43445.0</v>
+        <v>43445</v>
       </c>
       <c r="B275" s="6">
         <v>984.75</v>
@@ -4823,26 +5129,26 @@
         <v>984.75</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
-        <v>43446.0</v>
+        <v>43446</v>
       </c>
       <c r="B276" s="6">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="C276" s="6">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="D276" s="6">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="E276" s="6">
         <v>987.75</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
-        <v>43447.0</v>
+        <v>43447</v>
       </c>
       <c r="B277" s="6">
         <v>985.5</v>
@@ -4857,9 +5163,9 @@
         <v>978.25</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
-        <v>43448.0</v>
+        <v>43448</v>
       </c>
       <c r="B278" s="6">
         <v>973.5</v>
@@ -4874,9 +5180,9 @@
         <v>973.75</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
-        <v>43451.0</v>
+        <v>43451</v>
       </c>
       <c r="B279" s="6">
         <v>976.5</v>
@@ -4891,9 +5197,9 @@
         <v>976.5</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
-        <v>43452.0</v>
+        <v>43452</v>
       </c>
       <c r="B280" s="6">
         <v>979.75</v>
@@ -4902,15 +5208,15 @@
         <v>982.75</v>
       </c>
       <c r="D280" s="6">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="E280" s="6">
         <v>979.25</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
-        <v>43453.0</v>
+        <v>43453</v>
       </c>
       <c r="B281" s="6">
         <v>975.25</v>
@@ -4925,9 +5231,9 @@
         <v>973.25</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
-        <v>43454.0</v>
+        <v>43454</v>
       </c>
       <c r="B282" s="6">
         <v>969.5</v>
@@ -4942,15 +5248,15 @@
         <v>966.75</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
-        <v>43455.0</v>
+        <v>43455</v>
       </c>
       <c r="B283" s="6">
-        <v>963.0</v>
+        <v>963</v>
       </c>
       <c r="C283" s="6">
-        <v>963.0</v>
+        <v>963</v>
       </c>
       <c r="D283" s="6">
         <v>960.75</v>
@@ -4959,9 +5265,9 @@
         <v>961.75</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
-        <v>43458.0</v>
+        <v>43458</v>
       </c>
       <c r="B284" s="6">
         <v>962.5</v>
@@ -4976,15 +5282,15 @@
         <v>962.5</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
-        <v>43460.0</v>
+        <v>43460</v>
       </c>
       <c r="B285" s="6">
         <v>954.75</v>
       </c>
       <c r="C285" s="6">
-        <v>963.0</v>
+        <v>963</v>
       </c>
       <c r="D285" s="6">
         <v>951.5</v>
@@ -4993,9 +5299,9 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
-        <v>43461.0</v>
+        <v>43461</v>
       </c>
       <c r="B286" s="6">
         <v>952.25</v>
@@ -5010,9 +5316,9 @@
         <v>952.25</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
-        <v>43462.0</v>
+        <v>43462</v>
       </c>
       <c r="B287" s="6">
         <v>964.25</v>
@@ -5021,15 +5327,15 @@
         <v>965.75</v>
       </c>
       <c r="D287" s="6">
-        <v>962.0</v>
+        <v>962</v>
       </c>
       <c r="E287" s="6">
-        <v>962.0</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
-        <v>43465.0</v>
+        <v>43465</v>
       </c>
       <c r="B288" s="6">
         <v>961.75</v>
@@ -5038,66 +5344,66 @@
         <v>963.25</v>
       </c>
       <c r="D288" s="6">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="E288" s="6">
         <v>961.75</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
-        <v>43467.0</v>
+        <v>43467</v>
       </c>
       <c r="B289" s="6">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="C289" s="6">
-        <v>972.0</v>
+        <v>972</v>
       </c>
       <c r="D289" s="6">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="E289" s="6">
-        <v>970.0</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
-        <v>43468.0</v>
+        <v>43468</v>
       </c>
       <c r="B290" s="6">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="C290" s="6">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="D290" s="6">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="E290" s="6">
-        <v>973.0</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
-        <v>43469.0</v>
+        <v>43469</v>
       </c>
       <c r="B291" s="6">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="C291" s="6">
-        <v>981.0</v>
+        <v>981</v>
       </c>
       <c r="D291" s="6">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="E291" s="6">
         <v>980.75</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
-        <v>43472.0</v>
+        <v>43472</v>
       </c>
       <c r="B292" s="6">
         <v>983.5</v>
@@ -5112,26 +5418,26 @@
         <v>983.5</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
-        <v>43473.0</v>
+        <v>43473</v>
       </c>
       <c r="B293" s="6">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="C293" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="D293" s="6">
         <v>977.25</v>
       </c>
       <c r="E293" s="6">
-        <v>982.0</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
-        <v>43474.0</v>
+        <v>43474</v>
       </c>
       <c r="B294" s="6">
         <v>986.25</v>
@@ -5140,21 +5446,21 @@
         <v>987.75</v>
       </c>
       <c r="D294" s="6">
-        <v>986.0</v>
+        <v>986</v>
       </c>
       <c r="E294" s="6">
-        <v>987.0</v>
-      </c>
-    </row>
-    <row r="295">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
-        <v>43475.0</v>
+        <v>43475</v>
       </c>
       <c r="B295" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="C295" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="D295" s="6">
         <v>971.75</v>
@@ -5163,26 +5469,26 @@
         <v>973.25</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
-        <v>43476.0</v>
+        <v>43476</v>
       </c>
       <c r="B296" s="6">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="C296" s="6">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="D296" s="6">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="E296" s="6">
         <v>977.75</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
-        <v>43479.0</v>
+        <v>43479</v>
       </c>
       <c r="B297" s="6">
         <v>972.25</v>
@@ -5197,9 +5503,9 @@
         <v>972.75</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
-        <v>43480.0</v>
+        <v>43480</v>
       </c>
       <c r="B298" s="6">
         <v>970.25</v>
@@ -5214,43 +5520,43 @@
         <v>964.5</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
-        <v>43481.0</v>
+        <v>43481</v>
       </c>
       <c r="B299" s="6">
         <v>962.25</v>
       </c>
       <c r="C299" s="6">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="D299" s="6">
         <v>962.25</v>
       </c>
       <c r="E299" s="6">
-        <v>964.0</v>
-      </c>
-    </row>
-    <row r="300">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
-        <v>43482.0</v>
+        <v>43482</v>
       </c>
       <c r="B300" s="6">
         <v>966.25</v>
       </c>
       <c r="C300" s="6">
-        <v>974.0</v>
+        <v>974</v>
       </c>
       <c r="D300" s="6">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="E300" s="6">
         <v>971.75</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
-        <v>43483.0</v>
+        <v>43483</v>
       </c>
       <c r="B301" s="6">
         <v>975.75</v>
@@ -5259,32 +5565,32 @@
         <v>981.25</v>
       </c>
       <c r="D301" s="6">
-        <v>972.0</v>
+        <v>972</v>
       </c>
       <c r="E301" s="6">
-        <v>979.0</v>
-      </c>
-    </row>
-    <row r="302">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
-        <v>43487.0</v>
+        <v>43487</v>
       </c>
       <c r="B302" s="6">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="C302" s="6">
         <v>979.75</v>
       </c>
       <c r="D302" s="6">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="E302" s="6">
-        <v>974.0</v>
-      </c>
-    </row>
-    <row r="303">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
-        <v>43488.0</v>
+        <v>43488</v>
       </c>
       <c r="B303" s="6">
         <v>977.5</v>
@@ -5299,9 +5605,9 @@
         <v>977.75</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
-        <v>43489.0</v>
+        <v>43489</v>
       </c>
       <c r="B304" s="6">
         <v>975.5</v>
@@ -5310,32 +5616,32 @@
         <v>979.5</v>
       </c>
       <c r="D304" s="6">
-        <v>974.0</v>
+        <v>974</v>
       </c>
       <c r="E304" s="6">
         <v>977.25</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
-        <v>43490.0</v>
+        <v>43490</v>
       </c>
       <c r="B305" s="6">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="C305" s="6">
         <v>983.5</v>
       </c>
       <c r="D305" s="6">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="E305" s="6">
-        <v>983.0</v>
-      </c>
-    </row>
-    <row r="306">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
-        <v>43493.0</v>
+        <v>43493</v>
       </c>
       <c r="B306" s="6">
         <v>978.25</v>
@@ -5350,32 +5656,32 @@
         <v>980.25</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
-        <v>43494.0</v>
+        <v>43494</v>
       </c>
       <c r="B307" s="6">
         <v>976.25</v>
       </c>
       <c r="C307" s="6">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="D307" s="6">
         <v>976.25</v>
       </c>
       <c r="E307" s="6">
-        <v>977.0</v>
-      </c>
-    </row>
-    <row r="308">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
-        <v>43495.0</v>
+        <v>43495</v>
       </c>
       <c r="B308" s="6">
         <v>977.5</v>
       </c>
       <c r="C308" s="6">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="D308" s="6">
         <v>976.25</v>
@@ -5384,9 +5690,9 @@
         <v>978.25</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
-        <v>43496.0</v>
+        <v>43496</v>
       </c>
       <c r="B309" s="6">
         <v>981.25</v>
@@ -5398,18 +5704,18 @@
         <v>973.75</v>
       </c>
       <c r="E309" s="6">
-        <v>975.0</v>
-      </c>
-    </row>
-    <row r="310">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
-        <v>43497.0</v>
+        <v>43497</v>
       </c>
       <c r="B310" s="6">
         <v>981.75</v>
       </c>
       <c r="C310" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="D310" s="6">
         <v>975.75</v>
@@ -5418,9 +5724,9 @@
         <v>976.25</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
-        <v>43500.0</v>
+        <v>43500</v>
       </c>
       <c r="B311" s="6">
         <v>975.75</v>
@@ -5429,15 +5735,15 @@
         <v>979.5</v>
       </c>
       <c r="D311" s="6">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="E311" s="6">
         <v>976.5</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
-        <v>43501.0</v>
+        <v>43501</v>
       </c>
       <c r="B312" s="6">
         <v>976.25</v>
@@ -5452,12 +5758,12 @@
         <v>978.25</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
-        <v>43502.0</v>
+        <v>43502</v>
       </c>
       <c r="B313" s="6">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="C313" s="6">
         <v>982.75</v>
@@ -5466,35 +5772,35 @@
         <v>978.5</v>
       </c>
       <c r="E313" s="6">
-        <v>982.0</v>
-      </c>
-    </row>
-    <row r="314">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
-        <v>43503.0</v>
+        <v>43503</v>
       </c>
       <c r="B314" s="6">
         <v>980.5</v>
       </c>
       <c r="C314" s="6">
-        <v>981.0</v>
+        <v>981</v>
       </c>
       <c r="D314" s="6">
         <v>974.25</v>
       </c>
       <c r="E314" s="6">
-        <v>976.0</v>
-      </c>
-    </row>
-    <row r="315">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
-        <v>43504.0</v>
+        <v>43504</v>
       </c>
       <c r="B315" s="6">
-        <v>976.0</v>
+        <v>976</v>
       </c>
       <c r="C315" s="6">
-        <v>978.0</v>
+        <v>978</v>
       </c>
       <c r="D315" s="6">
         <v>973.5</v>
@@ -5503,9 +5809,9 @@
         <v>976.25</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
-        <v>43507.0</v>
+        <v>43507</v>
       </c>
       <c r="B316" s="6">
         <v>976.25</v>
@@ -5520,9 +5826,9 @@
         <v>969.75</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
-        <v>43508.0</v>
+        <v>43508</v>
       </c>
       <c r="B317" s="6">
         <v>974.5</v>
@@ -5537,15 +5843,15 @@
         <v>980.75</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
-        <v>43509.0</v>
+        <v>43509</v>
       </c>
       <c r="B318" s="6">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="C318" s="6">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="D318" s="6">
         <v>976.75</v>
@@ -5554,15 +5860,15 @@
         <v>978.5</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
-        <v>43510.0</v>
+        <v>43510</v>
       </c>
       <c r="B319" s="6">
         <v>973.75</v>
       </c>
       <c r="C319" s="6">
-        <v>974.0</v>
+        <v>974</v>
       </c>
       <c r="D319" s="6">
         <v>967.5</v>
@@ -5571,9 +5877,9 @@
         <v>968.25</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
-        <v>43511.0</v>
+        <v>43511</v>
       </c>
       <c r="B320" s="6">
         <v>971.25</v>
@@ -5585,12 +5891,12 @@
         <v>966.25</v>
       </c>
       <c r="E320" s="6">
-        <v>972.0</v>
-      </c>
-    </row>
-    <row r="321">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
-        <v>43515.0</v>
+        <v>43515</v>
       </c>
       <c r="B321" s="6">
         <v>972.5</v>
@@ -5599,15 +5905,15 @@
         <v>974.5</v>
       </c>
       <c r="D321" s="6">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="E321" s="6">
         <v>966.5</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
-        <v>43516.0</v>
+        <v>43516</v>
       </c>
       <c r="B322" s="6">
         <v>961.5</v>
@@ -5616,15 +5922,15 @@
         <v>969.75</v>
       </c>
       <c r="D322" s="6">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="E322" s="6">
         <v>968.75</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
-        <v>43517.0</v>
+        <v>43517</v>
       </c>
       <c r="B323" s="6">
         <v>968.5</v>
@@ -5633,15 +5939,15 @@
         <v>977.75</v>
       </c>
       <c r="D323" s="6">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="E323" s="6">
-        <v>974.0</v>
-      </c>
-    </row>
-    <row r="324">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
-        <v>43518.0</v>
+        <v>43518</v>
       </c>
       <c r="B324" s="6">
         <v>974.5</v>
@@ -5650,18 +5956,18 @@
         <v>975.75</v>
       </c>
       <c r="D324" s="6">
-        <v>971.0</v>
+        <v>971</v>
       </c>
       <c r="E324" s="6">
         <v>973.5</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
-        <v>43521.0</v>
+        <v>43521</v>
       </c>
       <c r="B325" s="6">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="C325" s="6">
         <v>981.5</v>
@@ -5670,32 +5976,32 @@
         <v>973.25</v>
       </c>
       <c r="E325" s="6">
-        <v>974.0</v>
-      </c>
-    </row>
-    <row r="326">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
-        <v>43522.0</v>
+        <v>43522</v>
       </c>
       <c r="B326" s="6">
         <v>972.5</v>
       </c>
       <c r="C326" s="6">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="D326" s="6">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="E326" s="6">
         <v>969.5</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
-        <v>43523.0</v>
+        <v>43523</v>
       </c>
       <c r="B327" s="6">
-        <v>969.0</v>
+        <v>969</v>
       </c>
       <c r="C327" s="6">
         <v>974.5</v>
@@ -5707,9 +6013,9 @@
         <v>969.25</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
-        <v>43524.0</v>
+        <v>43524</v>
       </c>
       <c r="B328" s="6">
         <v>969.25</v>
@@ -5724,26 +6030,26 @@
         <v>964.75</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
-        <v>43525.0</v>
+        <v>43525</v>
       </c>
       <c r="B329" s="6">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="C329" s="6">
         <v>971.5</v>
       </c>
       <c r="D329" s="6">
-        <v>957.0</v>
+        <v>957</v>
       </c>
       <c r="E329" s="6">
         <v>966.25</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
-        <v>43528.0</v>
+        <v>43528</v>
       </c>
       <c r="B330" s="6">
         <v>966.5</v>
@@ -5755,29 +6061,29 @@
         <v>966.5</v>
       </c>
       <c r="E330" s="6">
-        <v>972.0</v>
-      </c>
-    </row>
-    <row r="331">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
-        <v>43529.0</v>
+        <v>43529</v>
       </c>
       <c r="B331" s="6">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="C331" s="6">
         <v>973.75</v>
       </c>
       <c r="D331" s="6">
-        <v>967.0</v>
+        <v>967</v>
       </c>
       <c r="E331" s="6">
         <v>971.5</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
-        <v>43530.0</v>
+        <v>43530</v>
       </c>
       <c r="B332" s="6">
         <v>971.25</v>
@@ -5792,12 +6098,12 @@
         <v>960.25</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
-        <v>43531.0</v>
+        <v>43531</v>
       </c>
       <c r="B333" s="6">
-        <v>963.0</v>
+        <v>963</v>
       </c>
       <c r="C333" s="6">
         <v>964.25</v>
@@ -5809,26 +6115,26 @@
         <v>956.5</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
-        <v>43532.0</v>
+        <v>43532</v>
       </c>
       <c r="B334" s="6">
         <v>956.5</v>
       </c>
       <c r="C334" s="6">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="D334" s="6">
-        <v>948.0</v>
+        <v>948</v>
       </c>
       <c r="E334" s="6">
-        <v>952.0</v>
-      </c>
-    </row>
-    <row r="335">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
-        <v>43535.0</v>
+        <v>43535</v>
       </c>
       <c r="B335" s="6">
         <v>952.25</v>
@@ -5837,15 +6143,15 @@
         <v>954.5</v>
       </c>
       <c r="D335" s="6">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="E335" s="6">
         <v>948.5</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
-        <v>43536.0</v>
+        <v>43536</v>
       </c>
       <c r="B336" s="6">
         <v>948.5</v>
@@ -5860,29 +6166,29 @@
         <v>954.75</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
-        <v>43537.0</v>
+        <v>43537</v>
       </c>
       <c r="B337" s="6">
         <v>952.5</v>
       </c>
       <c r="C337" s="6">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="D337" s="6">
         <v>949.75</v>
       </c>
       <c r="E337" s="6">
-        <v>958.0</v>
-      </c>
-    </row>
-    <row r="338">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
-        <v>43538.0</v>
+        <v>43538</v>
       </c>
       <c r="B338" s="6">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="C338" s="6">
         <v>962.5</v>
@@ -5891,12 +6197,12 @@
         <v>953.5</v>
       </c>
       <c r="E338" s="6">
-        <v>955.0</v>
-      </c>
-    </row>
-    <row r="339">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
-        <v>43539.0</v>
+        <v>43539</v>
       </c>
       <c r="B339" s="6">
         <v>959.75</v>
@@ -5911,15 +6217,15 @@
         <v>962.5</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
-        <v>43542.0</v>
+        <v>43542</v>
       </c>
       <c r="B340" s="6">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="C340" s="6">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="D340" s="6">
         <v>956.25</v>
@@ -5928,9 +6234,9 @@
         <v>959.75</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
-        <v>43543.0</v>
+        <v>43543</v>
       </c>
       <c r="B341" s="6">
         <v>961.75</v>
@@ -5939,15 +6245,15 @@
         <v>962.25</v>
       </c>
       <c r="D341" s="6">
-        <v>956.0</v>
+        <v>956</v>
       </c>
       <c r="E341" s="6">
-        <v>960.0</v>
-      </c>
-    </row>
-    <row r="342">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
-        <v>43544.0</v>
+        <v>43544</v>
       </c>
       <c r="B342" s="6">
         <v>958.5</v>
@@ -5962,32 +6268,32 @@
         <v>960.5</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
-        <v>43545.0</v>
+        <v>43545</v>
       </c>
       <c r="B343" s="6">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="C343" s="6">
         <v>966.25</v>
       </c>
       <c r="D343" s="6">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="E343" s="6">
         <v>964.25</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
-        <v>43546.0</v>
+        <v>43546</v>
       </c>
       <c r="B344" s="6">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="C344" s="6">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="D344" s="6">
         <v>953.75</v>
@@ -5996,9 +6302,9 @@
         <v>954.75</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
-        <v>43549.0</v>
+        <v>43549</v>
       </c>
       <c r="B345" s="6">
         <v>955.25</v>
@@ -6013,26 +6319,26 @@
         <v>957.5</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
-        <v>43550.0</v>
+        <v>43550</v>
       </c>
       <c r="B346" s="6">
         <v>957.25</v>
       </c>
       <c r="C346" s="6">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="D346" s="6">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="E346" s="6">
         <v>952.5</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
-        <v>43551.0</v>
+        <v>43551</v>
       </c>
       <c r="B347" s="6">
         <v>951.25</v>
@@ -6047,9 +6353,9 @@
         <v>942.5</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
-        <v>43552.0</v>
+        <v>43552</v>
       </c>
       <c r="B348" s="6">
         <v>941.75</v>
@@ -6064,80 +6370,80 @@
         <v>942.25</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
-        <v>43553.0</v>
+        <v>43553</v>
       </c>
       <c r="B349" s="6">
-        <v>944.0</v>
+        <v>944</v>
       </c>
       <c r="C349" s="6">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="D349" s="6">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="E349" s="6">
         <v>938.25</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
-        <v>43556.0</v>
+        <v>43556</v>
       </c>
       <c r="B350" s="6">
         <v>939.5</v>
       </c>
       <c r="C350" s="6">
-        <v>951.0</v>
+        <v>951</v>
       </c>
       <c r="D350" s="6">
         <v>937.75</v>
       </c>
       <c r="E350" s="6">
-        <v>948.0</v>
-      </c>
-    </row>
-    <row r="351">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
-        <v>43557.0</v>
+        <v>43557</v>
       </c>
       <c r="B351" s="6">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="C351" s="6">
         <v>954.5</v>
       </c>
       <c r="D351" s="6">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="E351" s="6">
         <v>954.5</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
-        <v>43558.0</v>
+        <v>43558</v>
       </c>
       <c r="B352" s="6">
         <v>954.5</v>
       </c>
       <c r="C352" s="6">
-        <v>957.0</v>
+        <v>957</v>
       </c>
       <c r="D352" s="6">
         <v>950.5</v>
       </c>
       <c r="E352" s="6">
-        <v>954.0</v>
-      </c>
-    </row>
-    <row r="353">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
-        <v>43559.0</v>
+        <v>43559</v>
       </c>
       <c r="B353" s="6">
-        <v>955.0</v>
+        <v>955</v>
       </c>
       <c r="C353" s="6">
         <v>961.25</v>
@@ -6149,9 +6455,9 @@
         <v>960.75</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
-        <v>43560.0</v>
+        <v>43560</v>
       </c>
       <c r="B354" s="6">
         <v>958.25</v>
@@ -6166,9 +6472,9 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
-        <v>43563.0</v>
+        <v>43563</v>
       </c>
       <c r="B355" s="6">
         <v>955.5</v>
@@ -6180,15 +6486,15 @@
         <v>954.25</v>
       </c>
       <c r="E355" s="6">
-        <v>955.0</v>
-      </c>
-    </row>
-    <row r="356">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
-        <v>43564.0</v>
+        <v>43564</v>
       </c>
       <c r="B356" s="6">
-        <v>955.0</v>
+        <v>955</v>
       </c>
       <c r="C356" s="6">
         <v>957.25</v>
@@ -6200,32 +6506,32 @@
         <v>954.75</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
-        <v>43565.0</v>
+        <v>43565</v>
       </c>
       <c r="B357" s="6">
-        <v>954.0</v>
+        <v>954</v>
       </c>
       <c r="C357" s="6">
         <v>958.5</v>
       </c>
       <c r="D357" s="6">
-        <v>953.0</v>
+        <v>953</v>
       </c>
       <c r="E357" s="6">
-        <v>957.0</v>
-      </c>
-    </row>
-    <row r="358">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
-        <v>43566.0</v>
+        <v>43566</v>
       </c>
       <c r="B358" s="6">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="C358" s="6">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="D358" s="6">
         <v>949.75</v>
@@ -6234,12 +6540,12 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
-        <v>43567.0</v>
+        <v>43567</v>
       </c>
       <c r="B359" s="6">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="C359" s="6">
         <v>953.5</v>
@@ -6251,9 +6557,9 @@
         <v>950.5</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
-        <v>43570.0</v>
+        <v>43570</v>
       </c>
       <c r="B360" s="6">
         <v>953.5</v>
@@ -6268,9 +6574,9 @@
         <v>953.5</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
-        <v>43571.0</v>
+        <v>43571</v>
       </c>
       <c r="B361" s="6">
         <v>950.5</v>
@@ -6279,15 +6585,15 @@
         <v>950.75</v>
       </c>
       <c r="D361" s="6">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="E361" s="6">
         <v>944.75</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
-        <v>43572.0</v>
+        <v>43572</v>
       </c>
       <c r="B362" s="6">
         <v>945.5</v>
@@ -6299,32 +6605,32 @@
         <v>936.25</v>
       </c>
       <c r="E362" s="6">
-        <v>937.0</v>
-      </c>
-    </row>
-    <row r="363">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
-        <v>43573.0</v>
+        <v>43573</v>
       </c>
       <c r="B363" s="6">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="C363" s="6">
         <v>939.25</v>
       </c>
       <c r="D363" s="6">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="E363" s="6">
-        <v>938.0</v>
-      </c>
-    </row>
-    <row r="364">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
-        <v>43577.0</v>
+        <v>43577</v>
       </c>
       <c r="B364" s="6">
-        <v>938.0</v>
+        <v>938</v>
       </c>
       <c r="C364" s="6">
         <v>939.75</v>
@@ -6336,12 +6642,12 @@
         <v>934.5</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
-        <v>43578.0</v>
+        <v>43578</v>
       </c>
       <c r="B365" s="6">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="C365" s="6">
         <v>936.25</v>
@@ -6350,18 +6656,18 @@
         <v>921.75</v>
       </c>
       <c r="E365" s="6">
-        <v>923.0</v>
-      </c>
-    </row>
-    <row r="366">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
-        <v>43579.0</v>
+        <v>43579</v>
       </c>
       <c r="B366" s="6">
         <v>923.5</v>
       </c>
       <c r="C366" s="6">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="D366" s="6">
         <v>915.5</v>
@@ -6370,32 +6676,32 @@
         <v>916.25</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
-        <v>43580.0</v>
+        <v>43580</v>
       </c>
       <c r="B367" s="6">
         <v>916.5</v>
       </c>
       <c r="C367" s="6">
-        <v>923.0</v>
+        <v>923</v>
       </c>
       <c r="D367" s="6">
         <v>914.75</v>
       </c>
       <c r="E367" s="6">
-        <v>920.0</v>
-      </c>
-    </row>
-    <row r="368">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
-        <v>43581.0</v>
+        <v>43581</v>
       </c>
       <c r="B368" s="6">
         <v>918.75</v>
       </c>
       <c r="C368" s="6">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="D368" s="6">
         <v>913.5</v>
@@ -6404,9 +6710,9 @@
         <v>914.5</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
-        <v>43584.0</v>
+        <v>43584</v>
       </c>
       <c r="B369" s="6">
         <v>916.75</v>
@@ -6421,15 +6727,15 @@
         <v>907.75</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
-        <v>43585.0</v>
+        <v>43585</v>
       </c>
       <c r="B370" s="6">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="C370" s="6">
-        <v>911.0</v>
+        <v>911</v>
       </c>
       <c r="D370" s="6">
         <v>900.25</v>
@@ -6438,15 +6744,15 @@
         <v>902.5</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
-        <v>43586.0</v>
+        <v>43586</v>
       </c>
       <c r="B371" s="6">
         <v>902.5</v>
       </c>
       <c r="C371" s="6">
-        <v>906.0</v>
+        <v>906</v>
       </c>
       <c r="D371" s="6">
         <v>893.75</v>
@@ -6455,12 +6761,12 @@
         <v>901.75</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
-        <v>43587.0</v>
+        <v>43587</v>
       </c>
       <c r="B372" s="6">
-        <v>901.0</v>
+        <v>901</v>
       </c>
       <c r="C372" s="6">
         <v>902.75</v>
@@ -6469,18 +6775,18 @@
         <v>892.25</v>
       </c>
       <c r="E372" s="6">
-        <v>894.0</v>
-      </c>
-    </row>
-    <row r="373">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
-        <v>43588.0</v>
+        <v>43588</v>
       </c>
       <c r="B373" s="6">
         <v>895.75</v>
       </c>
       <c r="C373" s="6">
-        <v>898.0</v>
+        <v>898</v>
       </c>
       <c r="D373" s="6">
         <v>892.5</v>
@@ -6489,9 +6795,9 @@
         <v>894.25</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
-        <v>43591.0</v>
+        <v>43591</v>
       </c>
       <c r="B374" s="6">
         <v>882.25</v>
@@ -6503,18 +6809,18 @@
         <v>873.75</v>
       </c>
       <c r="E374" s="6">
-        <v>886.0</v>
-      </c>
-    </row>
-    <row r="375">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
-        <v>43592.0</v>
+        <v>43592</v>
       </c>
       <c r="B375" s="6">
-        <v>885.0</v>
+        <v>885</v>
       </c>
       <c r="C375" s="6">
-        <v>889.0</v>
+        <v>889</v>
       </c>
       <c r="D375" s="6">
         <v>882.5</v>
@@ -6523,9 +6829,9 @@
         <v>884.25</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
-        <v>43593.0</v>
+        <v>43593</v>
       </c>
       <c r="B376" s="6">
         <v>885.75</v>
@@ -6534,18 +6840,18 @@
         <v>887.5</v>
       </c>
       <c r="D376" s="6">
-        <v>880.0</v>
+        <v>880</v>
       </c>
       <c r="E376" s="6">
         <v>882.5</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
-        <v>43594.0</v>
+        <v>43594</v>
       </c>
       <c r="B377" s="6">
-        <v>882.0</v>
+        <v>882</v>
       </c>
       <c r="C377" s="6">
         <v>882.25</v>
@@ -6554,12 +6860,12 @@
         <v>865.25</v>
       </c>
       <c r="E377" s="6">
-        <v>871.0</v>
-      </c>
-    </row>
-    <row r="378">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
-        <v>43595.0</v>
+        <v>43595</v>
       </c>
       <c r="B378" s="6">
         <v>870.5</v>
@@ -6574,60 +6880,60 @@
         <v>869.5</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
-        <v>43598.0</v>
+        <v>43598</v>
       </c>
       <c r="B379" s="6">
-        <v>865.0</v>
+        <v>865</v>
       </c>
       <c r="C379" s="6">
         <v>867.75</v>
       </c>
       <c r="D379" s="6">
-        <v>854.0</v>
+        <v>854</v>
       </c>
       <c r="E379" s="6">
-        <v>865.0</v>
-      </c>
-    </row>
-    <row r="380">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
-        <v>43599.0</v>
+        <v>43599</v>
       </c>
       <c r="B380" s="6">
         <v>867.75</v>
       </c>
       <c r="C380" s="6">
-        <v>896.0</v>
+        <v>896</v>
       </c>
       <c r="D380" s="6">
         <v>867.75</v>
       </c>
       <c r="E380" s="6">
-        <v>891.0</v>
-      </c>
-    </row>
-    <row r="381">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
-        <v>43600.0</v>
+        <v>43600</v>
       </c>
       <c r="B381" s="6">
         <v>889.5</v>
       </c>
       <c r="C381" s="6">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="D381" s="6">
         <v>886.75</v>
       </c>
       <c r="E381" s="6">
-        <v>892.0</v>
-      </c>
-    </row>
-    <row r="382">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
-        <v>43601.0</v>
+        <v>43601</v>
       </c>
       <c r="B382" s="6">
         <v>891.75</v>
@@ -6639,12 +6945,12 @@
         <v>890.75</v>
       </c>
       <c r="E382" s="6">
-        <v>896.0</v>
-      </c>
-    </row>
-    <row r="383">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
-        <v>43602.0</v>
+        <v>43602</v>
       </c>
       <c r="B383" s="6">
         <v>896.5</v>
@@ -6653,21 +6959,21 @@
         <v>897.25</v>
       </c>
       <c r="D383" s="6">
-        <v>877.0</v>
+        <v>877</v>
       </c>
       <c r="E383" s="6">
         <v>878.25</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
-        <v>43605.0</v>
+        <v>43605</v>
       </c>
       <c r="B384" s="6">
         <v>882.5</v>
       </c>
       <c r="C384" s="6">
-        <v>893.0</v>
+        <v>893</v>
       </c>
       <c r="D384" s="6">
         <v>881.5</v>
@@ -6676,9 +6982,9 @@
         <v>888.5</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
-        <v>43606.0</v>
+        <v>43606</v>
       </c>
       <c r="B385" s="6">
         <v>894.5</v>
@@ -6693,9 +6999,9 @@
         <v>878.5</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
-        <v>43607.0</v>
+        <v>43607</v>
       </c>
       <c r="B386" s="6">
         <v>876.75</v>
@@ -6707,12 +7013,12 @@
         <v>876.25</v>
       </c>
       <c r="E386" s="6">
-        <v>885.0</v>
-      </c>
-    </row>
-    <row r="387">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
-        <v>43608.0</v>
+        <v>43608</v>
       </c>
       <c r="B387" s="6">
         <v>885.75</v>
@@ -6727,12 +7033,12 @@
         <v>880.75</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
-        <v>43609.0</v>
+        <v>43609</v>
       </c>
       <c r="B388" s="6">
-        <v>880.0</v>
+        <v>880</v>
       </c>
       <c r="C388" s="6">
         <v>889.25</v>
@@ -6741,12 +7047,12 @@
         <v>879.5</v>
       </c>
       <c r="E388" s="6">
-        <v>887.0</v>
-      </c>
-    </row>
-    <row r="389">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
-        <v>43613.0</v>
+        <v>43613</v>
       </c>
       <c r="B389" s="6">
         <v>895.75</v>
@@ -6761,9 +7067,9 @@
         <v>910.75</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
-        <v>43614.0</v>
+        <v>43614</v>
       </c>
       <c r="B390" s="6">
         <v>912.25</v>
@@ -6778,26 +7084,26 @@
         <v>922.75</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
-        <v>43615.0</v>
+        <v>43615</v>
       </c>
       <c r="B391" s="6">
-        <v>921.0</v>
+        <v>921</v>
       </c>
       <c r="C391" s="6">
         <v>937.25</v>
       </c>
       <c r="D391" s="6">
-        <v>916.0</v>
+        <v>916</v>
       </c>
       <c r="E391" s="6">
         <v>937.25</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
-        <v>43616.0</v>
+        <v>43616</v>
       </c>
       <c r="B392" s="6">
         <v>936.75</v>
@@ -6806,52 +7112,52 @@
         <v>939.75</v>
       </c>
       <c r="D392" s="6">
-        <v>927.0</v>
+        <v>927</v>
       </c>
       <c r="E392" s="6">
-        <v>928.0</v>
-      </c>
-    </row>
-    <row r="393">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="8">
-        <v>43619.0</v>
+        <v>43619</v>
       </c>
       <c r="B393" s="6">
-        <v>927.0</v>
+        <v>927</v>
       </c>
       <c r="C393" s="6">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="D393" s="6">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="E393" s="6">
-        <v>930.0</v>
-      </c>
-    </row>
-    <row r="394">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
-        <v>43620.0</v>
+        <v>43620</v>
       </c>
       <c r="B394" s="6">
         <v>939.75</v>
       </c>
       <c r="C394" s="6">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="D394" s="6">
-        <v>932.0</v>
+        <v>932</v>
       </c>
       <c r="E394" s="6">
         <v>934.5</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
-        <v>43621.0</v>
+        <v>43621</v>
       </c>
       <c r="B395" s="6">
-        <v>934.0</v>
+        <v>934</v>
       </c>
       <c r="C395" s="6">
         <v>936.5</v>
@@ -6863,9 +7169,9 @@
         <v>924.75</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
-        <v>43622.0</v>
+        <v>43622</v>
       </c>
       <c r="B396" s="6">
         <v>924.5</v>
@@ -6880,12 +7186,12 @@
         <v>923.5</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
-        <v>43623.0</v>
+        <v>43623</v>
       </c>
       <c r="B397" s="6">
-        <v>923.0</v>
+        <v>923</v>
       </c>
       <c r="C397" s="6">
         <v>925.75</v>
@@ -6897,15 +7203,15 @@
         <v>914.5</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
-        <v>43626.0</v>
+        <v>43626</v>
       </c>
       <c r="B398" s="6">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="C398" s="6">
-        <v>924.0</v>
+        <v>924</v>
       </c>
       <c r="D398" s="6">
         <v>907.75</v>
@@ -6914,26 +7220,26 @@
         <v>918.5</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
-        <v>43627.0</v>
+        <v>43627</v>
       </c>
       <c r="B399" s="6">
         <v>916.25</v>
       </c>
       <c r="C399" s="6">
-        <v>923.0</v>
+        <v>923</v>
       </c>
       <c r="D399" s="6">
         <v>911.75</v>
       </c>
       <c r="E399" s="6">
-        <v>920.0</v>
-      </c>
-    </row>
-    <row r="400">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
-        <v>43628.0</v>
+        <v>43628</v>
       </c>
       <c r="B400" s="6">
         <v>918.75</v>
@@ -6948,9 +7254,9 @@
         <v>934.25</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
-        <v>43629.0</v>
+        <v>43629</v>
       </c>
       <c r="B401" s="6">
         <v>933.75</v>
@@ -6962,32 +7268,32 @@
         <v>933.5</v>
       </c>
       <c r="E401" s="6">
-        <v>941.0</v>
-      </c>
-    </row>
-    <row r="402">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
-        <v>43630.0</v>
+        <v>43630</v>
       </c>
       <c r="B402" s="6">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="C402" s="6">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="D402" s="6">
         <v>938.25</v>
       </c>
       <c r="E402" s="6">
-        <v>946.0</v>
-      </c>
-    </row>
-    <row r="403">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
-        <v>43633.0</v>
+        <v>43633</v>
       </c>
       <c r="B403" s="6">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="C403" s="6">
         <v>959.5</v>
@@ -6996,15 +7302,15 @@
         <v>948.75</v>
       </c>
       <c r="E403" s="6">
-        <v>957.0</v>
-      </c>
-    </row>
-    <row r="404">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
-        <v>43634.0</v>
+        <v>43634</v>
       </c>
       <c r="B404" s="6">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="C404" s="6">
         <v>963.75</v>
@@ -7013,15 +7319,15 @@
         <v>950.25</v>
       </c>
       <c r="E404" s="6">
-        <v>957.0</v>
-      </c>
-    </row>
-    <row r="405">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
-        <v>43635.0</v>
+        <v>43635</v>
       </c>
       <c r="B405" s="6">
-        <v>954.0</v>
+        <v>954</v>
       </c>
       <c r="C405" s="6">
         <v>958.5</v>
@@ -7033,12 +7339,12 @@
         <v>951.25</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="8">
-        <v>43636.0</v>
+        <v>43636</v>
       </c>
       <c r="B406" s="6">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="C406" s="6">
         <v>965.25</v>
@@ -7050,12 +7356,12 @@
         <v>964.5</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="8">
-        <v>43637.0</v>
+        <v>43637</v>
       </c>
       <c r="B407" s="6">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="C407" s="6">
         <v>965.75</v>
@@ -7064,12 +7370,12 @@
         <v>951.75</v>
       </c>
       <c r="E407" s="6">
-        <v>952.0</v>
-      </c>
-    </row>
-    <row r="408">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="8">
-        <v>43640.0</v>
+        <v>43640</v>
       </c>
       <c r="B408" s="6">
         <v>950.25</v>
@@ -7078,15 +7384,15 @@
         <v>959.25</v>
       </c>
       <c r="D408" s="6">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="E408" s="6">
         <v>957.25</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="8">
-        <v>43641.0</v>
+        <v>43641</v>
       </c>
       <c r="B409" s="6">
         <v>961.5</v>
@@ -7101,29 +7407,29 @@
         <v>949.5</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
-        <v>43642.0</v>
+        <v>43642</v>
       </c>
       <c r="B410" s="6">
         <v>946.75</v>
       </c>
       <c r="C410" s="6">
-        <v>948.0</v>
+        <v>948</v>
       </c>
       <c r="D410" s="6">
         <v>940.5</v>
       </c>
       <c r="E410" s="6">
-        <v>942.0</v>
-      </c>
-    </row>
-    <row r="411">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
-        <v>43643.0</v>
+        <v>43643</v>
       </c>
       <c r="B411" s="6">
-        <v>941.0</v>
+        <v>941</v>
       </c>
       <c r="C411" s="6">
         <v>944.75</v>
@@ -7135,9 +7441,9 @@
         <v>938.75</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
-        <v>43644.0</v>
+        <v>43644</v>
       </c>
       <c r="B412" s="6">
         <v>938.75</v>
@@ -7146,15 +7452,15 @@
         <v>954.75</v>
       </c>
       <c r="D412" s="6">
-        <v>938.0</v>
+        <v>938</v>
       </c>
       <c r="E412" s="6">
         <v>947.75</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
-        <v>43647.0</v>
+        <v>43647</v>
       </c>
       <c r="B413" s="6">
         <v>951.25</v>
@@ -7169,43 +7475,43 @@
         <v>936.5</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="8">
-        <v>43648.0</v>
+        <v>43648</v>
       </c>
       <c r="B414" s="6">
         <v>937.5</v>
       </c>
       <c r="C414" s="6">
-        <v>941.0</v>
+        <v>941</v>
       </c>
       <c r="D414" s="6">
-        <v>928.0</v>
+        <v>928</v>
       </c>
       <c r="E414" s="6">
         <v>928.5</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
-        <v>43649.0</v>
+        <v>43649</v>
       </c>
       <c r="B415" s="6">
-        <v>929.0</v>
+        <v>929</v>
       </c>
       <c r="C415" s="6">
-        <v>938.0</v>
+        <v>938</v>
       </c>
       <c r="D415" s="6">
         <v>926.25</v>
       </c>
       <c r="E415" s="6">
-        <v>938.0</v>
-      </c>
-    </row>
-    <row r="416">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="8">
-        <v>43651.0</v>
+        <v>43651</v>
       </c>
       <c r="B416" s="6">
         <v>934.75</v>
@@ -7220,9 +7526,9 @@
         <v>924.75</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
-        <v>43654.0</v>
+        <v>43654</v>
       </c>
       <c r="B417" s="6">
         <v>930.75</v>
@@ -7237,15 +7543,15 @@
         <v>927.75</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
-        <v>43655.0</v>
+        <v>43655</v>
       </c>
       <c r="B418" s="6">
-        <v>928.0</v>
+        <v>928</v>
       </c>
       <c r="C418" s="6">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="D418" s="6">
         <v>920.5</v>
@@ -7254,15 +7560,15 @@
         <v>934.75</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
-        <v>43656.0</v>
+        <v>43656</v>
       </c>
       <c r="B419" s="6">
         <v>934.5</v>
       </c>
       <c r="C419" s="6">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="D419" s="6">
         <v>930.25</v>
@@ -7271,9 +7577,9 @@
         <v>942.5</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
-        <v>43657.0</v>
+        <v>43657</v>
       </c>
       <c r="B420" s="6">
         <v>943.5</v>
@@ -7282,21 +7588,21 @@
         <v>946.75</v>
       </c>
       <c r="D420" s="6">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="E420" s="6">
         <v>946.5</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
-        <v>43658.0</v>
+        <v>43658</v>
       </c>
       <c r="B421" s="6">
         <v>946.5</v>
       </c>
       <c r="C421" s="6">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="D421" s="6">
         <v>942.5</v>
@@ -7305,43 +7611,43 @@
         <v>958.5</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="8">
-        <v>43661.0</v>
+        <v>43661</v>
       </c>
       <c r="B422" s="6">
-        <v>957.0</v>
+        <v>957</v>
       </c>
       <c r="C422" s="6">
         <v>962.75</v>
       </c>
       <c r="D422" s="6">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="E422" s="6">
         <v>948.5</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="8">
-        <v>43662.0</v>
+        <v>43662</v>
       </c>
       <c r="B423" s="6">
         <v>944.75</v>
       </c>
       <c r="C423" s="6">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="D423" s="6">
         <v>932.75</v>
       </c>
       <c r="E423" s="6">
-        <v>936.0</v>
-      </c>
-    </row>
-    <row r="424">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="8">
-        <v>43663.0</v>
+        <v>43663</v>
       </c>
       <c r="B424" s="6">
         <v>934.75</v>
@@ -7350,15 +7656,15 @@
         <v>941.75</v>
       </c>
       <c r="D424" s="6">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="E424" s="6">
-        <v>931.0</v>
-      </c>
-    </row>
-    <row r="425">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="8">
-        <v>43664.0</v>
+        <v>43664</v>
       </c>
       <c r="B425" s="6">
         <v>928.75</v>
@@ -7370,12 +7676,12 @@
         <v>924.5</v>
       </c>
       <c r="E425" s="6">
-        <v>930.0</v>
-      </c>
-    </row>
-    <row r="426">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="8">
-        <v>43665.0</v>
+        <v>43665</v>
       </c>
       <c r="B426" s="6">
         <v>930.25</v>
@@ -7390,9 +7696,9 @@
         <v>948.75</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="8">
-        <v>43668.0</v>
+        <v>43668</v>
       </c>
       <c r="B427" s="6">
         <v>948.75</v>
@@ -7401,32 +7707,32 @@
         <v>950.75</v>
       </c>
       <c r="D427" s="6">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="E427" s="6">
-        <v>937.0</v>
-      </c>
-    </row>
-    <row r="428">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="8">
-        <v>43669.0</v>
+        <v>43669</v>
       </c>
       <c r="B428" s="6">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="C428" s="6">
         <v>940.5</v>
       </c>
       <c r="D428" s="6">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="E428" s="6">
         <v>935.25</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="8">
-        <v>43670.0</v>
+        <v>43670</v>
       </c>
       <c r="B429" s="6">
         <v>935.75</v>
@@ -7441,32 +7747,32 @@
         <v>940.5</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="8">
-        <v>43671.0</v>
+        <v>43671</v>
       </c>
       <c r="B430" s="6">
         <v>940.25</v>
       </c>
       <c r="C430" s="6">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="D430" s="6">
-        <v>932.0</v>
+        <v>932</v>
       </c>
       <c r="E430" s="6">
         <v>934.5</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="8">
-        <v>43672.0</v>
+        <v>43672</v>
       </c>
       <c r="B431" s="6">
         <v>934.5</v>
       </c>
       <c r="C431" s="6">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="D431" s="6">
         <v>933.25</v>
@@ -7475,9 +7781,9 @@
         <v>935.75</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="8">
-        <v>43675.0</v>
+        <v>43675</v>
       </c>
       <c r="B432" s="6">
         <v>935.25</v>
@@ -7486,38 +7792,38 @@
         <v>943.25</v>
       </c>
       <c r="D432" s="6">
-        <v>934.0</v>
+        <v>934</v>
       </c>
       <c r="E432" s="6">
-        <v>939.0</v>
-      </c>
-    </row>
-    <row r="433">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="8">
-        <v>43676.0</v>
+        <v>43676</v>
       </c>
       <c r="B433" s="6">
-        <v>939.0</v>
+        <v>939</v>
       </c>
       <c r="C433" s="6">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="D433" s="6">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="E433" s="6">
         <v>933.25</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="8">
-        <v>43677.0</v>
+        <v>43677</v>
       </c>
       <c r="B434" s="6">
         <v>931.75</v>
       </c>
       <c r="C434" s="6">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="D434" s="6">
         <v>919.25</v>
@@ -7526,9 +7832,9 @@
         <v>920.5</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="8">
-        <v>43678.0</v>
+        <v>43678</v>
       </c>
       <c r="B435" s="6">
         <v>918.25</v>
@@ -7543,9 +7849,9 @@
         <v>903.5</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="8">
-        <v>43679.0</v>
+        <v>43679</v>
       </c>
       <c r="B436" s="6">
         <v>906.25</v>
@@ -7560,9 +7866,9 @@
         <v>905.75</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="8">
-        <v>43682.0</v>
+        <v>43682</v>
       </c>
       <c r="B437" s="6">
         <v>907.75</v>
@@ -7577,12 +7883,12 @@
         <v>905.25</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="8">
-        <v>43683.0</v>
+        <v>43683</v>
       </c>
       <c r="B438" s="6">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="C438" s="6">
         <v>908.5</v>
@@ -7591,12 +7897,12 @@
         <v>901.25</v>
       </c>
       <c r="E438" s="6">
-        <v>902.0</v>
-      </c>
-    </row>
-    <row r="439">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="8">
-        <v>43684.0</v>
+        <v>43684</v>
       </c>
       <c r="B439" s="6">
         <v>902.75</v>
@@ -7608,12 +7914,12 @@
         <v>898.5</v>
       </c>
       <c r="E439" s="6">
-        <v>903.0</v>
-      </c>
-    </row>
-    <row r="440">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="8">
-        <v>43685.0</v>
+        <v>43685</v>
       </c>
       <c r="B440" s="6">
         <v>903.5</v>
@@ -7628,12 +7934,12 @@
         <v>918.5</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="8">
-        <v>43686.0</v>
+        <v>43686</v>
       </c>
       <c r="B441" s="6">
-        <v>919.0</v>
+        <v>919</v>
       </c>
       <c r="C441" s="6">
         <v>929.25</v>
@@ -7642,15 +7948,15 @@
         <v>917.25</v>
       </c>
       <c r="E441" s="6">
-        <v>927.0</v>
-      </c>
-    </row>
-    <row r="442">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="8">
-        <v>43689.0</v>
+        <v>43689</v>
       </c>
       <c r="B442" s="6">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="C442" s="6">
         <v>926.75</v>
@@ -7659,12 +7965,12 @@
         <v>913.25</v>
       </c>
       <c r="E442" s="6">
-        <v>917.0</v>
-      </c>
-    </row>
-    <row r="443">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="8">
-        <v>43690.0</v>
+        <v>43690</v>
       </c>
       <c r="B443" s="6">
         <v>915.5</v>
@@ -7679,9 +7985,9 @@
         <v>925.25</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="8">
-        <v>43691.0</v>
+        <v>43691</v>
       </c>
       <c r="B444" s="6">
         <v>926.25</v>
@@ -7690,15 +7996,15 @@
         <v>929.25</v>
       </c>
       <c r="D444" s="6">
-        <v>914.0</v>
+        <v>914</v>
       </c>
       <c r="E444" s="6">
-        <v>915.0</v>
-      </c>
-    </row>
-    <row r="445">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="8">
-        <v>43692.0</v>
+        <v>43692</v>
       </c>
       <c r="B445" s="6">
         <v>915.25</v>
@@ -7713,15 +8019,15 @@
         <v>908.25</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="8">
-        <v>43693.0</v>
+        <v>43693</v>
       </c>
       <c r="B446" s="6">
         <v>910.25</v>
       </c>
       <c r="C446" s="6">
-        <v>918.0</v>
+        <v>918</v>
       </c>
       <c r="D446" s="6">
         <v>908.75</v>
@@ -7730,9 +8036,9 @@
         <v>917.5</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="8">
-        <v>43696.0</v>
+        <v>43696</v>
       </c>
       <c r="B447" s="6">
         <v>912.75</v>
@@ -7747,9 +8053,9 @@
         <v>905.5</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="8">
-        <v>43697.0</v>
+        <v>43697</v>
       </c>
       <c r="B448" s="6">
         <v>906.5</v>
@@ -7764,9 +8070,9 @@
         <v>906.75</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="8">
-        <v>43698.0</v>
+        <v>43698</v>
       </c>
       <c r="B449" s="6">
         <v>906.75</v>
@@ -7781,32 +8087,32 @@
         <v>911.75</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="8">
-        <v>43699.0</v>
+        <v>43699</v>
       </c>
       <c r="B450" s="6">
         <v>912.5</v>
       </c>
       <c r="C450" s="6">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="D450" s="6">
         <v>905.75</v>
       </c>
       <c r="E450" s="6">
-        <v>907.0</v>
-      </c>
-    </row>
-    <row r="451">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="8">
-        <v>43700.0</v>
+        <v>43700</v>
       </c>
       <c r="B451" s="6">
         <v>907.25</v>
       </c>
       <c r="C451" s="6">
-        <v>910.0</v>
+        <v>910</v>
       </c>
       <c r="D451" s="6">
         <v>895.5</v>
@@ -7815,15 +8121,15 @@
         <v>897.25</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="8">
-        <v>43703.0</v>
+        <v>43703</v>
       </c>
       <c r="B452" s="6">
         <v>895.75</v>
       </c>
       <c r="C452" s="6">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="D452" s="6">
         <v>895.75</v>
@@ -7832,15 +8138,15 @@
         <v>904.25</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="8">
-        <v>43704.0</v>
+        <v>43704</v>
       </c>
       <c r="B453" s="6">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="C453" s="6">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="D453" s="6">
         <v>894.75</v>
@@ -7849,9 +8155,9 @@
         <v>897.25</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="8">
-        <v>43705.0</v>
+        <v>43705</v>
       </c>
       <c r="B454" s="6">
         <v>897.25</v>
@@ -7866,9 +8172,9 @@
         <v>902.75</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="8">
-        <v>43706.0</v>
+        <v>43706</v>
       </c>
       <c r="B455" s="6">
         <v>902.75</v>
@@ -7883,30 +8189,30 @@
         <v>904.75</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="8">
-        <v>43707.0</v>
+        <v>43707</v>
       </c>
       <c r="B456" s="6">
-        <v>904.0</v>
+        <v>904</v>
       </c>
       <c r="C456" s="6">
         <v>913.25</v>
       </c>
       <c r="D456" s="6">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="E456" s="6">
         <v>904.5</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="8"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>